--- a/Code/Absolventen/Absolventen_all.xlsx
+++ b/Code/Absolventen/Absolventen_all.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\GitHub\Documents\Code\Absolventen\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="60" windowWidth="23040" windowHeight="10605"/>
   </bookViews>
@@ -14,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$B$1:$V$241</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -3831,9 +3836,6 @@
     <t>Ok-Automation</t>
   </si>
   <si>
-    <t>Planung, Programmierung, Inbetriebnahme von Anlagen(von Chemiebiokraftwerk); Simulation von Prozessen, Anlagen</t>
-  </si>
-  <si>
     <t>Hermann Richter Gasse 4</t>
   </si>
   <si>
@@ -7009,6 +7011,9 @@
   </si>
   <si>
     <t>Titel</t>
+  </si>
+  <si>
+    <t>Planung, Programmierung, Inbetriebnahme von Anlagen(von Chemiebiokraftwerk), Simulation von Prozessen, Anlagen</t>
   </si>
 </sst>
 </file>
@@ -7215,7 +7220,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -7251,6 +7256,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -7511,7 +7519,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7521,8 +7529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA1219"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="A524" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L548" sqref="L548"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7551,25 +7559,25 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
+        <v>2322</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>2323</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="9" t="s">
         <v>2324</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>2325</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="3" t="s">
         <v>2326</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>2327</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>2328</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>2329</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>0</v>
@@ -26049,7 +26057,7 @@
         <v>1269</v>
       </c>
       <c r="L547" s="3" t="s">
-        <v>1270</v>
+        <v>2329</v>
       </c>
       <c r="N547" s="1">
         <v>3100</v>
@@ -26058,7 +26066,7 @@
         <v>1106</v>
       </c>
       <c r="P547" s="3" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="Q547" s="4" t="s">
         <v>376</v>
@@ -26070,10 +26078,10 @@
         <v>376</v>
       </c>
       <c r="U547" s="20" t="s">
+        <v>1271</v>
+      </c>
+      <c r="V547" s="23" t="s">
         <v>1272</v>
-      </c>
-      <c r="V547" s="23" t="s">
-        <v>1273</v>
       </c>
     </row>
     <row r="548" spans="1:22" x14ac:dyDescent="0.2">
@@ -26090,7 +26098,7 @@
         <v>15</v>
       </c>
       <c r="E548" s="1" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="F548" s="1" t="s">
         <v>207</v>
@@ -26113,7 +26121,7 @@
         <v>16</v>
       </c>
       <c r="E549" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="F549" s="1" t="s">
         <v>148</v>
@@ -26136,7 +26144,7 @@
         <v>17</v>
       </c>
       <c r="E550" s="1" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="F550" s="1" t="s">
         <v>123</v>
@@ -26162,7 +26170,7 @@
         <v>664</v>
       </c>
       <c r="F551" s="1" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="H551" s="2"/>
       <c r="J551" s="30"/>
@@ -26182,10 +26190,10 @@
         <v>2</v>
       </c>
       <c r="E552" s="1" t="s">
+        <v>1277</v>
+      </c>
+      <c r="F552" s="1" t="s">
         <v>1278</v>
-      </c>
-      <c r="F552" s="1" t="s">
-        <v>1279</v>
       </c>
       <c r="H552" s="2"/>
       <c r="J552" s="30"/>
@@ -26205,10 +26213,10 @@
         <v>3</v>
       </c>
       <c r="E553" s="1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="F553" s="1" t="s">
         <v>1280</v>
-      </c>
-      <c r="F553" s="1" t="s">
-        <v>1281</v>
       </c>
       <c r="H553" s="2"/>
       <c r="J553" s="30"/>
@@ -26228,10 +26236,10 @@
         <v>4</v>
       </c>
       <c r="E554" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="F554" s="1" t="s">
         <v>1282</v>
-      </c>
-      <c r="F554" s="1" t="s">
-        <v>1283</v>
       </c>
       <c r="H554" s="2"/>
       <c r="J554" s="30"/>
@@ -26251,10 +26259,10 @@
         <v>5</v>
       </c>
       <c r="E555" s="1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="F555" s="1" t="s">
         <v>1284</v>
-      </c>
-      <c r="F555" s="1" t="s">
-        <v>1285</v>
       </c>
       <c r="H555" s="2"/>
       <c r="J555" s="30"/>
@@ -26297,10 +26305,10 @@
         <v>7</v>
       </c>
       <c r="E557" s="1" t="s">
+        <v>1285</v>
+      </c>
+      <c r="F557" s="1" t="s">
         <v>1286</v>
-      </c>
-      <c r="F557" s="1" t="s">
-        <v>1287</v>
       </c>
       <c r="H557" s="2"/>
       <c r="J557" s="30"/>
@@ -26320,7 +26328,7 @@
         <v>8</v>
       </c>
       <c r="E558" s="1" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="F558" s="1" t="s">
         <v>52</v>
@@ -26346,7 +26354,7 @@
         <v>59</v>
       </c>
       <c r="F559" s="1" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="H559" s="2"/>
       <c r="J559" s="30"/>
@@ -26366,7 +26374,7 @@
         <v>10</v>
       </c>
       <c r="E560" s="1" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="F560" s="1" t="s">
         <v>35</v>
@@ -26389,10 +26397,10 @@
         <v>11</v>
       </c>
       <c r="E561" s="1" t="s">
+        <v>1289</v>
+      </c>
+      <c r="F561" s="1" t="s">
         <v>1290</v>
-      </c>
-      <c r="F561" s="1" t="s">
-        <v>1291</v>
       </c>
       <c r="H561" s="2"/>
       <c r="J561" s="30"/>
@@ -26412,10 +26420,10 @@
         <v>12</v>
       </c>
       <c r="E562" s="1" t="s">
+        <v>1291</v>
+      </c>
+      <c r="F562" s="1" t="s">
         <v>1292</v>
-      </c>
-      <c r="F562" s="1" t="s">
-        <v>1293</v>
       </c>
       <c r="H562" s="2"/>
       <c r="J562" s="30"/>
@@ -26435,7 +26443,7 @@
         <v>13</v>
       </c>
       <c r="E563" s="1" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="F563" s="1" t="s">
         <v>1131</v>
@@ -26458,7 +26466,7 @@
         <v>14</v>
       </c>
       <c r="E564" s="1" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="F564" s="1" t="s">
         <v>35</v>
@@ -26483,10 +26491,10 @@
         <v>15</v>
       </c>
       <c r="E565" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="F565" s="1" t="s">
         <v>1296</v>
-      </c>
-      <c r="F565" s="1" t="s">
-        <v>1297</v>
       </c>
       <c r="H565" s="2"/>
       <c r="J565" s="30"/>
@@ -26506,10 +26514,10 @@
         <v>16</v>
       </c>
       <c r="E566" s="1" t="s">
+        <v>1297</v>
+      </c>
+      <c r="F566" s="1" t="s">
         <v>1298</v>
-      </c>
-      <c r="F566" s="1" t="s">
-        <v>1299</v>
       </c>
       <c r="H566" s="2"/>
       <c r="J566" s="30"/>
@@ -26552,7 +26560,7 @@
         <v>18</v>
       </c>
       <c r="E568" s="1" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="F568" s="1" t="s">
         <v>994</v>
@@ -26575,7 +26583,7 @@
         <v>19</v>
       </c>
       <c r="E569" s="1" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="F569" s="1" t="s">
         <v>37</v>
@@ -26598,10 +26606,10 @@
         <v>20</v>
       </c>
       <c r="E570" s="1" t="s">
+        <v>1301</v>
+      </c>
+      <c r="F570" s="1" t="s">
         <v>1302</v>
-      </c>
-      <c r="F570" s="1" t="s">
-        <v>1303</v>
       </c>
       <c r="H570" s="2"/>
       <c r="J570" s="30"/>
@@ -26621,10 +26629,10 @@
         <v>21</v>
       </c>
       <c r="E571" s="1" t="s">
+        <v>1303</v>
+      </c>
+      <c r="F571" s="1" t="s">
         <v>1304</v>
-      </c>
-      <c r="F571" s="1" t="s">
-        <v>1305</v>
       </c>
       <c r="H571" s="2"/>
       <c r="J571" s="30"/>
@@ -26690,7 +26698,7 @@
         <v>24</v>
       </c>
       <c r="E574" s="1" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="F574" s="1" t="s">
         <v>60</v>
@@ -26713,10 +26721,10 @@
         <v>25</v>
       </c>
       <c r="E575" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="F575" s="1" t="s">
         <v>1307</v>
-      </c>
-      <c r="F575" s="1" t="s">
-        <v>1308</v>
       </c>
       <c r="H575" s="2"/>
       <c r="J575" s="30"/>
@@ -26736,10 +26744,10 @@
         <v>26</v>
       </c>
       <c r="E576" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="F576" s="1" t="s">
         <v>1309</v>
-      </c>
-      <c r="F576" s="1" t="s">
-        <v>1310</v>
       </c>
       <c r="H576" s="2"/>
       <c r="J576" s="30"/>
@@ -26759,10 +26767,10 @@
         <v>27</v>
       </c>
       <c r="E577" s="1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="F577" s="1" t="s">
         <v>1311</v>
-      </c>
-      <c r="F577" s="1" t="s">
-        <v>1312</v>
       </c>
       <c r="H577" s="2"/>
       <c r="J577" s="30"/>
@@ -26828,10 +26836,10 @@
         <v>30</v>
       </c>
       <c r="E580" s="1" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="F580" s="1" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="H580" s="2"/>
       <c r="J580" s="30"/>
@@ -26851,7 +26859,7 @@
         <v>31</v>
       </c>
       <c r="E581" s="1" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="F581" s="1" t="s">
         <v>817</v>
@@ -26900,7 +26908,7 @@
         <v>803</v>
       </c>
       <c r="F583" s="1" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="H583" s="2"/>
       <c r="J583" s="30"/>
@@ -26920,10 +26928,10 @@
         <v>34</v>
       </c>
       <c r="E584" s="1" t="s">
+        <v>1315</v>
+      </c>
+      <c r="F584" s="1" t="s">
         <v>1316</v>
-      </c>
-      <c r="F584" s="1" t="s">
-        <v>1317</v>
       </c>
       <c r="H584" s="2"/>
       <c r="J584" s="30"/>
@@ -26943,7 +26951,7 @@
         <v>1</v>
       </c>
       <c r="E585" s="1" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="F585" s="1" t="s">
         <v>45</v>
@@ -26955,20 +26963,20 @@
         <v>2014</v>
       </c>
       <c r="J585" s="38" t="s">
+        <v>1318</v>
+      </c>
+      <c r="L585" s="28" t="s">
         <v>1319</v>
-      </c>
-      <c r="L585" s="28" t="s">
-        <v>1320</v>
       </c>
       <c r="M585" s="47"/>
       <c r="N585" s="48" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="O585" s="28" t="s">
         <v>373</v>
       </c>
       <c r="P585" s="28" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="Q585" s="28" t="s">
         <v>376</v>
@@ -26980,10 +26988,10 @@
         <v>376</v>
       </c>
       <c r="U585" s="19" t="s">
+        <v>1322</v>
+      </c>
+      <c r="V585" s="49" t="s">
         <v>1323</v>
-      </c>
-      <c r="V585" s="49" t="s">
-        <v>1324</v>
       </c>
     </row>
     <row r="586" spans="1:22" x14ac:dyDescent="0.2">
@@ -27000,7 +27008,7 @@
         <v>2</v>
       </c>
       <c r="E586" s="1" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="F586" s="1" t="s">
         <v>873</v>
@@ -27008,7 +27016,7 @@
       <c r="H586" s="2"/>
       <c r="J586" s="30"/>
       <c r="K586" s="19" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="M586" s="47"/>
       <c r="V586" s="50"/>
@@ -27027,7 +27035,7 @@
         <v>3</v>
       </c>
       <c r="E587" s="1" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="F587" s="1" t="s">
         <v>41</v>
@@ -27054,7 +27062,7 @@
         <v>806</v>
       </c>
       <c r="F588" s="1" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="H588" s="26" t="s">
         <v>376</v>
@@ -27063,7 +27071,7 @@
         <v>2014</v>
       </c>
       <c r="J588" s="31" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="K588" s="20"/>
       <c r="L588" s="4" t="s">
@@ -27077,7 +27085,7 @@
         <v>373</v>
       </c>
       <c r="P588" s="4" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="Q588" s="4" t="s">
         <v>376</v>
@@ -27089,10 +27097,10 @@
         <v>376</v>
       </c>
       <c r="U588" s="19" t="s">
+        <v>1330</v>
+      </c>
+      <c r="V588" s="52" t="s">
         <v>1331</v>
-      </c>
-      <c r="V588" s="52" t="s">
-        <v>1332</v>
       </c>
     </row>
     <row r="589" spans="1:22" x14ac:dyDescent="0.2">
@@ -27109,7 +27117,7 @@
         <v>5</v>
       </c>
       <c r="E589" s="1" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="F589" s="1" t="s">
         <v>152</v>
@@ -27133,10 +27141,10 @@
         <v>6</v>
       </c>
       <c r="E590" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="F590" s="1" t="s">
         <v>1334</v>
-      </c>
-      <c r="F590" s="1" t="s">
-        <v>1335</v>
       </c>
       <c r="H590" s="26" t="s">
         <v>375</v>
@@ -27159,10 +27167,10 @@
         <v>7</v>
       </c>
       <c r="E591" s="1" t="s">
+        <v>1335</v>
+      </c>
+      <c r="F591" s="1" t="s">
         <v>1336</v>
-      </c>
-      <c r="F591" s="1" t="s">
-        <v>1337</v>
       </c>
       <c r="H591" s="2"/>
       <c r="J591" s="31"/>
@@ -27191,7 +27199,7 @@
         <v>8</v>
       </c>
       <c r="E592" s="1" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="F592" s="1" t="s">
         <v>232</v>
@@ -27215,7 +27223,7 @@
         <v>9</v>
       </c>
       <c r="E593" s="1" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="F593" s="1" t="s">
         <v>24</v>
@@ -27250,7 +27258,7 @@
         <v>1206</v>
       </c>
       <c r="F594" s="1" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="H594" s="2"/>
       <c r="J594" s="31"/>
@@ -27278,7 +27286,7 @@
         <v>11</v>
       </c>
       <c r="E595" s="1" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="F595" s="1" t="s">
         <v>247</v>
@@ -27310,7 +27318,7 @@
       <c r="H596" s="2"/>
       <c r="J596" s="30"/>
       <c r="K596" s="19" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="M596" s="47"/>
       <c r="V596" s="50"/>
@@ -27341,16 +27349,16 @@
         <v>2014</v>
       </c>
       <c r="J597" s="31" t="s">
+        <v>1342</v>
+      </c>
+      <c r="K597" s="20" t="s">
         <v>1343</v>
       </c>
-      <c r="K597" s="20" t="s">
+      <c r="L597" s="4" t="s">
         <v>1344</v>
       </c>
-      <c r="L597" s="4" t="s">
+      <c r="M597" s="51" t="s">
         <v>1345</v>
-      </c>
-      <c r="M597" s="51" t="s">
-        <v>1346</v>
       </c>
       <c r="N597" s="1">
         <v>9500</v>
@@ -27359,7 +27367,7 @@
         <v>883</v>
       </c>
       <c r="P597" s="4" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="Q597" s="4" t="s">
         <v>375</v>
@@ -27386,7 +27394,7 @@
         <v>14</v>
       </c>
       <c r="E598" s="1" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="F598" s="1" t="s">
         <v>828</v>
@@ -27398,13 +27406,13 @@
         <v>2014</v>
       </c>
       <c r="J598" s="38" t="s">
+        <v>1348</v>
+      </c>
+      <c r="L598" s="28" t="s">
         <v>1349</v>
       </c>
-      <c r="L598" s="28" t="s">
+      <c r="M598" s="55" t="s">
         <v>1350</v>
-      </c>
-      <c r="M598" s="55" t="s">
-        <v>1351</v>
       </c>
       <c r="N598" s="1">
         <v>1220</v>
@@ -27413,7 +27421,7 @@
         <v>373</v>
       </c>
       <c r="P598" s="28" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="Q598" s="28" t="s">
         <v>376</v>
@@ -27425,10 +27433,10 @@
         <v>376</v>
       </c>
       <c r="U598" s="19" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="V598" s="49" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="599" spans="1:22" x14ac:dyDescent="0.2">
@@ -27445,7 +27453,7 @@
         <v>15</v>
       </c>
       <c r="E599" s="1" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="F599" s="1" t="s">
         <v>137</v>
@@ -27460,7 +27468,7 @@
         <v>383</v>
       </c>
       <c r="L599" s="28" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="M599" s="47"/>
       <c r="N599" s="1">
@@ -27470,7 +27478,7 @@
         <v>373</v>
       </c>
       <c r="P599" s="28" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="Q599" s="28" t="s">
         <v>376</v>
@@ -27482,10 +27490,10 @@
         <v>376</v>
       </c>
       <c r="U599" s="19" t="s">
+        <v>1356</v>
+      </c>
+      <c r="V599" s="49" t="s">
         <v>1357</v>
-      </c>
-      <c r="V599" s="49" t="s">
-        <v>1358</v>
       </c>
     </row>
     <row r="600" spans="1:22" x14ac:dyDescent="0.2">
@@ -27502,7 +27510,7 @@
         <v>16</v>
       </c>
       <c r="E600" s="1" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="F600" s="1" t="s">
         <v>247</v>
@@ -27526,7 +27534,7 @@
         <v>17</v>
       </c>
       <c r="E601" s="1" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="F601" s="1" t="s">
         <v>152</v>
@@ -27535,7 +27543,7 @@
       <c r="J601" s="30"/>
       <c r="M601" s="47"/>
       <c r="U601" s="19" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="V601" s="50"/>
     </row>
@@ -27553,7 +27561,7 @@
         <v>18</v>
       </c>
       <c r="E602" s="1" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="F602" s="1" t="s">
         <v>156</v>
@@ -27577,7 +27585,7 @@
         <v>19</v>
       </c>
       <c r="E603" s="1" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="F603" s="1" t="s">
         <v>115</v>
@@ -27589,10 +27597,10 @@
         <v>2014</v>
       </c>
       <c r="J603" s="38" t="s">
+        <v>1363</v>
+      </c>
+      <c r="L603" s="28" t="s">
         <v>1364</v>
-      </c>
-      <c r="L603" s="28" t="s">
-        <v>1365</v>
       </c>
       <c r="M603" s="47"/>
       <c r="N603" s="1">
@@ -27602,7 +27610,7 @@
         <v>373</v>
       </c>
       <c r="P603" s="28" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="Q603" s="28" t="s">
         <v>375</v>
@@ -27614,10 +27622,10 @@
         <v>375</v>
       </c>
       <c r="U603" s="19" t="s">
+        <v>1366</v>
+      </c>
+      <c r="V603" s="49" t="s">
         <v>1367</v>
-      </c>
-      <c r="V603" s="49" t="s">
-        <v>1368</v>
       </c>
     </row>
     <row r="604" spans="1:22" x14ac:dyDescent="0.2">
@@ -27634,10 +27642,10 @@
         <v>20</v>
       </c>
       <c r="E604" s="1" t="s">
+        <v>1368</v>
+      </c>
+      <c r="F604" s="1" t="s">
         <v>1369</v>
-      </c>
-      <c r="F604" s="1" t="s">
-        <v>1370</v>
       </c>
       <c r="H604" s="2"/>
       <c r="J604" s="31"/>
@@ -27665,7 +27673,7 @@
         <v>1235</v>
       </c>
       <c r="F605" s="1" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="H605" s="26" t="s">
         <v>375</v>
@@ -27674,16 +27682,16 @@
         <v>2014</v>
       </c>
       <c r="J605" s="38" t="s">
+        <v>1371</v>
+      </c>
+      <c r="K605" s="19" t="s">
         <v>1372</v>
       </c>
-      <c r="K605" s="19" t="s">
+      <c r="L605" s="28" t="s">
         <v>1373</v>
       </c>
-      <c r="L605" s="28" t="s">
+      <c r="M605" s="55" t="s">
         <v>1374</v>
-      </c>
-      <c r="M605" s="55" t="s">
-        <v>1375</v>
       </c>
       <c r="N605" s="1">
         <v>3730</v>
@@ -27692,7 +27700,7 @@
         <v>481</v>
       </c>
       <c r="P605" s="28" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="Q605" s="28" t="s">
         <v>375</v>
@@ -27735,7 +27743,7 @@
       <c r="R606" s="35"/>
       <c r="S606" s="35"/>
       <c r="U606" s="19" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="V606" s="50"/>
     </row>
@@ -27753,17 +27761,17 @@
         <v>3</v>
       </c>
       <c r="E607" s="1" t="s">
+        <v>1377</v>
+      </c>
+      <c r="F607" s="1" t="s">
         <v>1378</v>
-      </c>
-      <c r="F607" s="1" t="s">
-        <v>1379</v>
       </c>
       <c r="H607" s="26" t="s">
         <v>375</v>
       </c>
       <c r="J607" s="30"/>
       <c r="K607" s="19" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="M607" s="47"/>
       <c r="V607" s="50"/>
@@ -27782,7 +27790,7 @@
         <v>4</v>
       </c>
       <c r="E608" s="1" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="F608" s="1" t="s">
         <v>87</v>
@@ -27793,7 +27801,7 @@
       <c r="J608" s="30"/>
       <c r="M608" s="47"/>
       <c r="U608" s="19" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="V608" s="50"/>
     </row>
@@ -27811,17 +27819,17 @@
         <v>5</v>
       </c>
       <c r="E609" s="1" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F609" s="1" t="s">
         <v>1383</v>
-      </c>
-      <c r="F609" s="1" t="s">
-        <v>1384</v>
       </c>
       <c r="H609" s="26" t="s">
         <v>375</v>
       </c>
       <c r="J609" s="30"/>
       <c r="K609" s="19" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="M609" s="47"/>
       <c r="V609" s="50"/>
@@ -27840,7 +27848,7 @@
         <v>6</v>
       </c>
       <c r="E610" s="1" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="F610" s="1" t="s">
         <v>237</v>
@@ -27848,7 +27856,7 @@
       <c r="H610" s="2"/>
       <c r="J610" s="31"/>
       <c r="K610" s="19" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="L610" s="28"/>
       <c r="M610" s="47"/>
@@ -27872,7 +27880,7 @@
         <v>7</v>
       </c>
       <c r="E611" s="1" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="F611" s="1" t="s">
         <v>247</v>
@@ -27880,7 +27888,7 @@
       <c r="H611" s="2"/>
       <c r="J611" s="30"/>
       <c r="K611" s="19" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="M611" s="47"/>
       <c r="V611" s="50"/>
@@ -27899,7 +27907,7 @@
         <v>8</v>
       </c>
       <c r="E612" s="1" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="F612" s="1" t="s">
         <v>232</v>
@@ -27907,7 +27915,7 @@
       <c r="H612" s="2"/>
       <c r="J612" s="38"/>
       <c r="K612" s="19" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="L612" s="28"/>
       <c r="M612" s="56"/>
@@ -27932,15 +27940,15 @@
         <v>9</v>
       </c>
       <c r="E613" s="1" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="F613" s="1" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="H613" s="2"/>
       <c r="J613" s="38"/>
       <c r="K613" s="19" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="L613" s="28"/>
       <c r="M613" s="47"/>
@@ -27965,7 +27973,7 @@
         <v>10</v>
       </c>
       <c r="E614" s="1" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="F614" s="1" t="s">
         <v>89</v>
@@ -27974,7 +27982,7 @@
       <c r="J614" s="30"/>
       <c r="M614" s="47"/>
       <c r="U614" s="19" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="V614" s="50"/>
     </row>
@@ -27992,10 +28000,10 @@
         <v>11</v>
       </c>
       <c r="E615" s="1" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="F615" s="1" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="H615" s="26" t="s">
         <v>375</v>
@@ -28007,7 +28015,7 @@
         <v>556</v>
       </c>
       <c r="L615" s="28" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="M615" s="47"/>
       <c r="Q615" s="28" t="s">
@@ -28020,10 +28028,10 @@
         <v>376</v>
       </c>
       <c r="U615" s="19" t="s">
+        <v>1396</v>
+      </c>
+      <c r="V615" s="49" t="s">
         <v>1397</v>
-      </c>
-      <c r="V615" s="49" t="s">
-        <v>1398</v>
       </c>
     </row>
     <row r="616" spans="1:22" x14ac:dyDescent="0.2">
@@ -28040,7 +28048,7 @@
         <v>12</v>
       </c>
       <c r="E616" s="1" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="F616" s="1" t="s">
         <v>836</v>
@@ -28049,7 +28057,7 @@
       <c r="J616" s="30"/>
       <c r="M616" s="47"/>
       <c r="U616" s="19" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="V616" s="50"/>
     </row>
@@ -28076,7 +28084,7 @@
       <c r="J617" s="30"/>
       <c r="M617" s="47"/>
       <c r="U617" s="19" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="V617" s="50"/>
     </row>
@@ -28102,7 +28110,7 @@
       <c r="H618" s="2"/>
       <c r="J618" s="30"/>
       <c r="K618" s="19" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="M618" s="47"/>
       <c r="V618" s="50"/>
@@ -28121,7 +28129,7 @@
         <v>15</v>
       </c>
       <c r="E619" s="1" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="F619" s="1" t="s">
         <v>146</v>
@@ -28133,13 +28141,13 @@
         <v>2014</v>
       </c>
       <c r="J619" s="38" t="s">
+        <v>1402</v>
+      </c>
+      <c r="K619" s="19" t="s">
         <v>1403</v>
       </c>
-      <c r="K619" s="19" t="s">
+      <c r="L619" s="28" t="s">
         <v>1404</v>
-      </c>
-      <c r="L619" s="28" t="s">
-        <v>1405</v>
       </c>
       <c r="M619" s="47"/>
       <c r="N619" s="1">
@@ -28149,7 +28157,7 @@
         <v>373</v>
       </c>
       <c r="P619" s="28" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="Q619" s="28" t="s">
         <v>375</v>
@@ -28161,10 +28169,10 @@
         <v>376</v>
       </c>
       <c r="U619" s="19" t="s">
+        <v>1406</v>
+      </c>
+      <c r="V619" s="49" t="s">
         <v>1407</v>
-      </c>
-      <c r="V619" s="49" t="s">
-        <v>1408</v>
       </c>
     </row>
     <row r="620" spans="1:22" x14ac:dyDescent="0.2">
@@ -28181,7 +28189,7 @@
         <v>16</v>
       </c>
       <c r="E620" s="1" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="F620" s="1" t="s">
         <v>818</v>
@@ -28205,10 +28213,10 @@
         <v>1</v>
       </c>
       <c r="E621" s="1" t="s">
+        <v>1409</v>
+      </c>
+      <c r="F621" s="1" t="s">
         <v>1410</v>
-      </c>
-      <c r="F621" s="1" t="s">
-        <v>1411</v>
       </c>
       <c r="H621" s="26" t="s">
         <v>375</v>
@@ -28217,13 +28225,13 @@
         <v>2014</v>
       </c>
       <c r="J621" s="38" t="s">
+        <v>1411</v>
+      </c>
+      <c r="L621" s="28" t="s">
         <v>1412</v>
       </c>
-      <c r="L621" s="28" t="s">
+      <c r="M621" s="49" t="s">
         <v>1413</v>
-      </c>
-      <c r="M621" s="49" t="s">
-        <v>1414</v>
       </c>
       <c r="N621" s="1">
         <v>1200</v>
@@ -28232,7 +28240,7 @@
         <v>373</v>
       </c>
       <c r="P621" s="28" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="Q621" s="28" t="s">
         <v>375</v>
@@ -28244,7 +28252,7 @@
         <v>376</v>
       </c>
       <c r="U621" s="19" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="V621" s="50"/>
     </row>
@@ -28262,7 +28270,7 @@
         <v>2</v>
       </c>
       <c r="E622" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F622" s="1" t="s">
         <v>263</v>
@@ -28274,10 +28282,10 @@
         <v>2014</v>
       </c>
       <c r="J622" s="38" t="s">
+        <v>1417</v>
+      </c>
+      <c r="L622" s="28" t="s">
         <v>1418</v>
-      </c>
-      <c r="L622" s="28" t="s">
-        <v>1419</v>
       </c>
       <c r="M622" s="47"/>
       <c r="N622" s="1">
@@ -28287,7 +28295,7 @@
         <v>373</v>
       </c>
       <c r="P622" s="28" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="Q622" s="28" t="s">
         <v>375</v>
@@ -28299,10 +28307,10 @@
         <v>376</v>
       </c>
       <c r="U622" s="19" t="s">
+        <v>1420</v>
+      </c>
+      <c r="V622" s="49" t="s">
         <v>1421</v>
-      </c>
-      <c r="V622" s="49" t="s">
-        <v>1422</v>
       </c>
     </row>
     <row r="623" spans="1:22" x14ac:dyDescent="0.2">
@@ -28319,7 +28327,7 @@
         <v>3</v>
       </c>
       <c r="E623" s="1" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="F623" s="1" t="s">
         <v>232</v>
@@ -28331,13 +28339,13 @@
         <v>2014</v>
       </c>
       <c r="J623" s="38" t="s">
+        <v>1423</v>
+      </c>
+      <c r="K623" s="19" t="s">
         <v>1424</v>
       </c>
-      <c r="K623" s="19" t="s">
+      <c r="L623" s="28" t="s">
         <v>1425</v>
-      </c>
-      <c r="L623" s="28" t="s">
-        <v>1426</v>
       </c>
       <c r="M623" s="47"/>
       <c r="N623" s="1">
@@ -28347,7 +28355,7 @@
         <v>373</v>
       </c>
       <c r="P623" s="28" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="Q623" s="28" t="s">
         <v>376</v>
@@ -28359,7 +28367,7 @@
         <v>375</v>
       </c>
       <c r="V623" s="49" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="624" spans="1:22" x14ac:dyDescent="0.2">
@@ -28376,7 +28384,7 @@
         <v>4</v>
       </c>
       <c r="E624" s="1" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="F624" s="1" t="s">
         <v>24</v>
@@ -28400,16 +28408,16 @@
         <v>5</v>
       </c>
       <c r="E625" s="1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="F625" s="1" t="s">
         <v>1430</v>
-      </c>
-      <c r="F625" s="1" t="s">
-        <v>1431</v>
       </c>
       <c r="H625" s="2"/>
       <c r="J625" s="30"/>
       <c r="M625" s="47"/>
       <c r="U625" s="19" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="V625" s="50"/>
     </row>
@@ -28427,7 +28435,7 @@
         <v>6</v>
       </c>
       <c r="E626" s="1" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="F626" s="1" t="s">
         <v>41</v>
@@ -28439,16 +28447,16 @@
         <v>2014</v>
       </c>
       <c r="J626" s="38" t="s">
+        <v>1433</v>
+      </c>
+      <c r="K626" s="19" t="s">
         <v>1434</v>
-      </c>
-      <c r="K626" s="19" t="s">
-        <v>1435</v>
       </c>
       <c r="L626" s="28" t="s">
         <v>774</v>
       </c>
       <c r="M626" s="55" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="N626" s="1">
         <v>1220</v>
@@ -28457,7 +28465,7 @@
         <v>373</v>
       </c>
       <c r="P626" s="28" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="Q626" s="28" t="s">
         <v>375</v>
@@ -28469,7 +28477,7 @@
         <v>376</v>
       </c>
       <c r="U626" s="19" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="V626" s="50"/>
     </row>
@@ -28487,7 +28495,7 @@
         <v>7</v>
       </c>
       <c r="E627" s="1" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="F627" s="1" t="s">
         <v>137</v>
@@ -28511,7 +28519,7 @@
         <v>8</v>
       </c>
       <c r="E628" s="1" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="F628" s="1" t="s">
         <v>818</v>
@@ -28523,11 +28531,11 @@
         <v>2014</v>
       </c>
       <c r="J628" s="31" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="K628" s="20"/>
       <c r="L628" s="4" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="M628" s="51"/>
       <c r="N628" s="1">
@@ -28537,7 +28545,7 @@
         <v>1106</v>
       </c>
       <c r="P628" s="4" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="Q628" s="4" t="s">
         <v>375</v>
@@ -28549,10 +28557,10 @@
         <v>375</v>
       </c>
       <c r="U628" s="19" t="s">
+        <v>1442</v>
+      </c>
+      <c r="V628" s="49" t="s">
         <v>1443</v>
-      </c>
-      <c r="V628" s="49" t="s">
-        <v>1444</v>
       </c>
     </row>
     <row r="629" spans="1:22" x14ac:dyDescent="0.2">
@@ -28569,10 +28577,10 @@
         <v>9</v>
       </c>
       <c r="E629" s="1" t="s">
+        <v>1444</v>
+      </c>
+      <c r="F629" s="1" t="s">
         <v>1445</v>
-      </c>
-      <c r="F629" s="1" t="s">
-        <v>1446</v>
       </c>
       <c r="H629" s="26" t="s">
         <v>376</v>
@@ -28581,7 +28589,7 @@
         <v>2014</v>
       </c>
       <c r="J629" s="31" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="L629" s="3" t="s">
         <v>443</v>
@@ -28594,7 +28602,7 @@
         <v>405</v>
       </c>
       <c r="P629" s="3" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="Q629" s="3" t="s">
         <v>376</v>
@@ -28606,10 +28614,10 @@
         <v>376</v>
       </c>
       <c r="U629" s="19" t="s">
+        <v>1448</v>
+      </c>
+      <c r="V629" s="49" t="s">
         <v>1449</v>
-      </c>
-      <c r="V629" s="49" t="s">
-        <v>1450</v>
       </c>
     </row>
     <row r="630" spans="1:22" x14ac:dyDescent="0.2">
@@ -28626,7 +28634,7 @@
         <v>10</v>
       </c>
       <c r="E630" s="1" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="F630" s="1" t="s">
         <v>167</v>
@@ -28652,7 +28660,7 @@
         <v>11</v>
       </c>
       <c r="E631" s="1" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="F631" s="1" t="s">
         <v>152</v>
@@ -28678,10 +28686,10 @@
         <v>12</v>
       </c>
       <c r="E632" s="1" t="s">
+        <v>1452</v>
+      </c>
+      <c r="F632" s="1" t="s">
         <v>1453</v>
-      </c>
-      <c r="F632" s="1" t="s">
-        <v>1454</v>
       </c>
       <c r="H632" s="26" t="s">
         <v>375</v>
@@ -28690,13 +28698,13 @@
         <v>2014</v>
       </c>
       <c r="J632" s="38" t="s">
+        <v>1454</v>
+      </c>
+      <c r="K632" s="19" t="s">
         <v>1455</v>
       </c>
-      <c r="K632" s="19" t="s">
-        <v>1456</v>
-      </c>
       <c r="L632" s="28" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="M632" s="47"/>
       <c r="N632" s="1">
@@ -28706,7 +28714,7 @@
         <v>373</v>
       </c>
       <c r="P632" s="28" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="Q632" s="28" t="s">
         <v>375</v>
@@ -28718,7 +28726,7 @@
         <v>375</v>
       </c>
       <c r="V632" s="49" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="633" spans="1:22" x14ac:dyDescent="0.2">
@@ -28735,7 +28743,7 @@
         <v>13</v>
       </c>
       <c r="E633" s="1" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="F633" s="1" t="s">
         <v>103</v>
@@ -28747,16 +28755,16 @@
         <v>2014</v>
       </c>
       <c r="J633" s="38" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="K633" s="19" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="L633" s="28" t="s">
         <v>635</v>
       </c>
       <c r="M633" s="55" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="N633" s="1">
         <v>1230</v>
@@ -28765,7 +28773,7 @@
         <v>373</v>
       </c>
       <c r="P633" s="28" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="Q633" s="28" t="s">
         <v>375</v>
@@ -28792,7 +28800,7 @@
         <v>14</v>
       </c>
       <c r="E634" s="1" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="F634" s="1" t="s">
         <v>189</v>
@@ -28804,16 +28812,16 @@
         <v>2014</v>
       </c>
       <c r="J634" s="38" t="s">
+        <v>1463</v>
+      </c>
+      <c r="K634" s="19" t="s">
         <v>1464</v>
       </c>
-      <c r="K634" s="19" t="s">
+      <c r="L634" s="28" t="s">
         <v>1465</v>
       </c>
-      <c r="L634" s="28" t="s">
+      <c r="M634" s="55" t="s">
         <v>1466</v>
-      </c>
-      <c r="M634" s="55" t="s">
-        <v>1467</v>
       </c>
       <c r="N634" s="1">
         <v>1210</v>
@@ -28822,7 +28830,7 @@
         <v>373</v>
       </c>
       <c r="P634" s="28" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="Q634" s="28" t="s">
         <v>375</v>
@@ -28834,7 +28842,7 @@
         <v>376</v>
       </c>
       <c r="U634" s="19" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="V634" s="50"/>
     </row>
@@ -28852,7 +28860,7 @@
         <v>15</v>
       </c>
       <c r="E635" s="1" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="F635" s="1" t="s">
         <v>143</v>
@@ -28883,7 +28891,7 @@
         <v>16</v>
       </c>
       <c r="E636" s="1" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="F636" s="1" t="s">
         <v>103</v>
@@ -28895,16 +28903,16 @@
         <v>2014</v>
       </c>
       <c r="J636" s="38" t="s">
+        <v>1470</v>
+      </c>
+      <c r="K636" s="19" t="s">
         <v>1471</v>
       </c>
-      <c r="K636" s="19" t="s">
+      <c r="L636" s="28" t="s">
         <v>1472</v>
       </c>
-      <c r="L636" s="28" t="s">
+      <c r="M636" s="55" t="s">
         <v>1473</v>
-      </c>
-      <c r="M636" s="55" t="s">
-        <v>1474</v>
       </c>
       <c r="N636" s="1">
         <v>1210</v>
@@ -28913,7 +28921,7 @@
         <v>373</v>
       </c>
       <c r="P636" s="28" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="Q636" s="28" t="s">
         <v>376</v>
@@ -28925,7 +28933,7 @@
         <v>375</v>
       </c>
       <c r="U636" s="19" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="V636" s="50"/>
     </row>
@@ -28943,7 +28951,7 @@
         <v>17</v>
       </c>
       <c r="E637" s="1" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="F637" s="1" t="s">
         <v>167</v>
@@ -28955,16 +28963,16 @@
         <v>2014</v>
       </c>
       <c r="J637" s="34" t="s">
+        <v>1476</v>
+      </c>
+      <c r="K637" s="20" t="s">
         <v>1477</v>
       </c>
-      <c r="K637" s="20" t="s">
+      <c r="L637" s="35" t="s">
         <v>1478</v>
       </c>
-      <c r="L637" s="35" t="s">
+      <c r="M637" s="56" t="s">
         <v>1479</v>
-      </c>
-      <c r="M637" s="56" t="s">
-        <v>1480</v>
       </c>
       <c r="N637" s="1">
         <v>1230</v>
@@ -28973,7 +28981,7 @@
         <v>373</v>
       </c>
       <c r="P637" s="35" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="Q637" s="35" t="s">
         <v>376</v>
@@ -29000,7 +29008,7 @@
         <v>18</v>
       </c>
       <c r="E638" s="1" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="F638" s="1" t="s">
         <v>127</v>
@@ -29012,10 +29020,10 @@
         <v>2014</v>
       </c>
       <c r="J638" s="38" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="L638" s="28" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="M638" s="47"/>
       <c r="N638" s="1">
@@ -29025,7 +29033,7 @@
         <v>373</v>
       </c>
       <c r="P638" s="28" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="Q638" s="28" t="s">
         <v>375</v>
@@ -29037,10 +29045,10 @@
         <v>376</v>
       </c>
       <c r="U638" s="19" t="s">
+        <v>1484</v>
+      </c>
+      <c r="V638" s="49" t="s">
         <v>1485</v>
-      </c>
-      <c r="V638" s="49" t="s">
-        <v>1486</v>
       </c>
     </row>
     <row r="639" spans="1:22" x14ac:dyDescent="0.2">
@@ -29060,7 +29068,7 @@
         <v>101</v>
       </c>
       <c r="F639" s="1" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="H639" s="2"/>
       <c r="J639" s="30"/>
@@ -29081,7 +29089,7 @@
         <v>2</v>
       </c>
       <c r="E640" s="1" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="F640" s="1" t="s">
         <v>873</v>
@@ -29105,7 +29113,7 @@
         <v>3</v>
       </c>
       <c r="E641" s="1" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="F641" s="1" t="s">
         <v>263</v>
@@ -29129,7 +29137,7 @@
         <v>4</v>
       </c>
       <c r="E642" s="1" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="F642" s="1" t="s">
         <v>143</v>
@@ -29153,7 +29161,7 @@
         <v>5</v>
       </c>
       <c r="E643" s="1" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="F643" s="1" t="s">
         <v>197</v>
@@ -29177,7 +29185,7 @@
         <v>6</v>
       </c>
       <c r="E644" s="1" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="F644" s="1" t="s">
         <v>24</v>
@@ -29230,7 +29238,7 @@
         <v>8</v>
       </c>
       <c r="E646" s="1" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="F646" s="1" t="s">
         <v>146</v>
@@ -29261,7 +29269,7 @@
         <v>9</v>
       </c>
       <c r="E647" s="1" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="F647" s="1" t="s">
         <v>133</v>
@@ -29285,7 +29293,7 @@
         <v>10</v>
       </c>
       <c r="E648" s="1" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="F648" s="1" t="s">
         <v>24</v>
@@ -29309,7 +29317,7 @@
         <v>11</v>
       </c>
       <c r="E649" s="1" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="F649" s="1" t="s">
         <v>261</v>
@@ -29335,7 +29343,7 @@
         <v>12</v>
       </c>
       <c r="E650" s="1" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="F650" s="1" t="s">
         <v>836</v>
@@ -29366,7 +29374,7 @@
         <v>13</v>
       </c>
       <c r="E651" s="1" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="F651" s="1" t="s">
         <v>89</v>
@@ -29390,7 +29398,7 @@
         <v>14</v>
       </c>
       <c r="E652" s="1" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="F652" s="1" t="s">
         <v>197</v>
@@ -29414,10 +29422,10 @@
         <v>15</v>
       </c>
       <c r="E653" s="1" t="s">
+        <v>1498</v>
+      </c>
+      <c r="F653" s="1" t="s">
         <v>1499</v>
-      </c>
-      <c r="F653" s="1" t="s">
-        <v>1500</v>
       </c>
       <c r="H653" s="2"/>
       <c r="J653" s="30"/>
@@ -29438,7 +29446,7 @@
         <v>16</v>
       </c>
       <c r="E654" s="1" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="F654" s="1" t="s">
         <v>87</v>
@@ -29462,7 +29470,7 @@
         <v>17</v>
       </c>
       <c r="E655" s="1" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="F655" s="1" t="s">
         <v>167</v>
@@ -29486,10 +29494,10 @@
         <v>18</v>
       </c>
       <c r="E656" s="1" t="s">
+        <v>1502</v>
+      </c>
+      <c r="F656" s="1" t="s">
         <v>1503</v>
-      </c>
-      <c r="F656" s="1" t="s">
-        <v>1504</v>
       </c>
       <c r="H656" s="2"/>
       <c r="J656" s="30"/>
@@ -29510,7 +29518,7 @@
         <v>19</v>
       </c>
       <c r="E657" s="1" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="F657" s="1" t="s">
         <v>167</v>
@@ -29546,13 +29554,13 @@
         <v>2014</v>
       </c>
       <c r="J658" s="40" t="s">
+        <v>1505</v>
+      </c>
+      <c r="K658" s="19" t="s">
         <v>1506</v>
       </c>
-      <c r="K658" s="19" t="s">
+      <c r="L658" s="28" t="s">
         <v>1507</v>
-      </c>
-      <c r="L658" s="28" t="s">
-        <v>1508</v>
       </c>
       <c r="M658" s="47"/>
       <c r="N658" s="1">
@@ -29562,7 +29570,7 @@
         <v>373</v>
       </c>
       <c r="P658" s="35" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="Q658" s="28" t="s">
         <v>375</v>
@@ -29575,7 +29583,7 @@
       </c>
       <c r="U658" s="19"/>
       <c r="V658" s="58" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="659" spans="1:22" x14ac:dyDescent="0.2">
@@ -29592,7 +29600,7 @@
         <v>2</v>
       </c>
       <c r="E659" s="1" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="F659" s="1" t="s">
         <v>87</v>
@@ -29604,10 +29612,10 @@
         <v>2014</v>
       </c>
       <c r="J659" s="38" t="s">
+        <v>1511</v>
+      </c>
+      <c r="L659" s="28" t="s">
         <v>1512</v>
-      </c>
-      <c r="L659" s="28" t="s">
-        <v>1513</v>
       </c>
       <c r="M659" s="47"/>
       <c r="N659" s="1">
@@ -29617,7 +29625,7 @@
         <v>373</v>
       </c>
       <c r="P659" s="28" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="Q659" s="28" t="s">
         <v>375</v>
@@ -29629,10 +29637,10 @@
         <v>376</v>
       </c>
       <c r="U659" s="19" t="s">
+        <v>1514</v>
+      </c>
+      <c r="V659" s="49" t="s">
         <v>1515</v>
-      </c>
-      <c r="V659" s="49" t="s">
-        <v>1516</v>
       </c>
     </row>
     <row r="660" spans="1:22" x14ac:dyDescent="0.2">
@@ -29649,7 +29657,7 @@
         <v>3</v>
       </c>
       <c r="E660" s="1" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="F660" s="1" t="s">
         <v>87</v>
@@ -29673,7 +29681,7 @@
         <v>4</v>
       </c>
       <c r="E661" s="1" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="F661" s="1" t="s">
         <v>247</v>
@@ -29752,7 +29760,7 @@
         <v>7</v>
       </c>
       <c r="E664" s="1" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="F664" s="1" t="s">
         <v>141</v>
@@ -29791,13 +29799,13 @@
         <v>411</v>
       </c>
       <c r="K665" s="19" t="s">
+        <v>1519</v>
+      </c>
+      <c r="L665" s="3" t="s">
         <v>1520</v>
       </c>
-      <c r="L665" s="3" t="s">
+      <c r="M665" s="60" t="s">
         <v>1521</v>
-      </c>
-      <c r="M665" s="60" t="s">
-        <v>1522</v>
       </c>
       <c r="N665" s="1">
         <v>1040</v>
@@ -29806,7 +29814,7 @@
         <v>373</v>
       </c>
       <c r="P665" s="4" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="Q665" s="4" t="s">
         <v>376</v>
@@ -29857,7 +29865,7 @@
         <v>10</v>
       </c>
       <c r="E667" s="1" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="F667" s="1" t="s">
         <v>93</v>
@@ -29869,10 +29877,10 @@
         <v>2014</v>
       </c>
       <c r="J667" s="38" t="s">
+        <v>1524</v>
+      </c>
+      <c r="K667" s="19" t="s">
         <v>1525</v>
-      </c>
-      <c r="K667" s="19" t="s">
-        <v>1526</v>
       </c>
       <c r="M667" s="47"/>
       <c r="N667" s="48">
@@ -29882,7 +29890,7 @@
         <v>373</v>
       </c>
       <c r="P667" s="48" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="Q667" s="28" t="s">
         <v>376</v>
@@ -29909,7 +29917,7 @@
         <v>11</v>
       </c>
       <c r="E668" s="1" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="F668" s="1" t="s">
         <v>81</v>
@@ -29940,10 +29948,10 @@
         <v>12</v>
       </c>
       <c r="E669" s="1" t="s">
+        <v>1528</v>
+      </c>
+      <c r="F669" s="1" t="s">
         <v>1529</v>
-      </c>
-      <c r="F669" s="1" t="s">
-        <v>1530</v>
       </c>
       <c r="H669" s="2"/>
       <c r="J669" s="30"/>
@@ -29964,7 +29972,7 @@
         <v>13</v>
       </c>
       <c r="E670" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F670" s="1" t="s">
         <v>237</v>
@@ -29988,13 +29996,13 @@
         <v>14</v>
       </c>
       <c r="E671" s="1" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="F671" s="1" t="s">
         <v>334</v>
       </c>
       <c r="G671" s="28" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="H671" s="26" t="s">
         <v>376</v>
@@ -30003,25 +30011,25 @@
         <v>2014</v>
       </c>
       <c r="J671" s="38" t="s">
+        <v>1533</v>
+      </c>
+      <c r="K671" s="19" t="s">
         <v>1534</v>
       </c>
-      <c r="K671" s="19" t="s">
+      <c r="L671" s="28" t="s">
+        <v>1465</v>
+      </c>
+      <c r="M671" s="55" t="s">
         <v>1535</v>
-      </c>
-      <c r="L671" s="28" t="s">
-        <v>1466</v>
-      </c>
-      <c r="M671" s="55" t="s">
-        <v>1536</v>
       </c>
       <c r="N671" s="1">
         <v>4040</v>
       </c>
       <c r="O671" s="28" t="s">
+        <v>1536</v>
+      </c>
+      <c r="P671" s="28" t="s">
         <v>1537</v>
-      </c>
-      <c r="P671" s="28" t="s">
-        <v>1538</v>
       </c>
       <c r="Q671" s="28" t="s">
         <v>375</v>
@@ -30048,7 +30056,7 @@
         <v>15</v>
       </c>
       <c r="E672" s="1" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="F672" s="1" t="s">
         <v>263</v>
@@ -30072,7 +30080,7 @@
         <v>16</v>
       </c>
       <c r="E673" s="1" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="F673" s="1" t="s">
         <v>64</v>
@@ -30098,7 +30106,7 @@
         <v>17</v>
       </c>
       <c r="E674" s="1" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="F674" s="1" t="s">
         <v>85</v>
@@ -30122,7 +30130,7 @@
         <v>18</v>
       </c>
       <c r="E675" s="1" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="F675" s="1" t="s">
         <v>633</v>
@@ -30134,13 +30142,13 @@
         <v>2014</v>
       </c>
       <c r="J675" s="38" t="s">
+        <v>1542</v>
+      </c>
+      <c r="K675" s="19" t="s">
         <v>1543</v>
       </c>
-      <c r="K675" s="19" t="s">
+      <c r="M675" s="55" t="s">
         <v>1544</v>
-      </c>
-      <c r="M675" s="55" t="s">
-        <v>1545</v>
       </c>
       <c r="N675" s="1">
         <v>1111</v>
@@ -30149,7 +30157,7 @@
         <v>373</v>
       </c>
       <c r="P675" s="28" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="Q675" s="28" t="s">
         <v>376</v>
@@ -30176,7 +30184,7 @@
         <v>1</v>
       </c>
       <c r="E676" s="1" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="F676" s="1" t="s">
         <v>154</v>
@@ -30201,7 +30209,7 @@
         <v>2</v>
       </c>
       <c r="E677" s="1" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="F677" s="1" t="s">
         <v>156</v>
@@ -30230,7 +30238,7 @@
         <v>3</v>
       </c>
       <c r="E678" s="1" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="F678" s="1" t="s">
         <v>89</v>
@@ -30254,7 +30262,7 @@
         <v>4</v>
       </c>
       <c r="E679" s="1" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="F679" s="1" t="s">
         <v>24</v>
@@ -30286,7 +30294,7 @@
         <v>5</v>
       </c>
       <c r="E680" s="1" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="F680" s="1" t="s">
         <v>154</v>
@@ -30316,7 +30324,7 @@
         <v>6</v>
       </c>
       <c r="E681" s="1" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="F681" s="1" t="s">
         <v>85</v>
@@ -30328,16 +30336,16 @@
         <v>2014</v>
       </c>
       <c r="J681" s="30" t="s">
+        <v>1551</v>
+      </c>
+      <c r="L681" s="1" t="s">
         <v>1552</v>
-      </c>
-      <c r="L681" s="1" t="s">
-        <v>1553</v>
       </c>
       <c r="O681" s="1" t="s">
         <v>373</v>
       </c>
       <c r="P681" s="1" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="Q681" s="1" t="s">
         <v>375</v>
@@ -30346,10 +30354,10 @@
         <v>376</v>
       </c>
       <c r="U681" s="19" t="s">
+        <v>1554</v>
+      </c>
+      <c r="V681" s="24" t="s">
         <v>1555</v>
-      </c>
-      <c r="V681" s="24" t="s">
-        <v>1556</v>
       </c>
     </row>
     <row r="682" spans="1:22" x14ac:dyDescent="0.2">
@@ -30366,7 +30374,7 @@
         <v>7</v>
       </c>
       <c r="E682" s="1" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="F682" s="1" t="s">
         <v>81</v>
@@ -30376,14 +30384,14 @@
         <v>2014</v>
       </c>
       <c r="J682" s="40" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="K682" s="19"/>
       <c r="L682" s="3" t="s">
+        <v>1558</v>
+      </c>
+      <c r="M682" s="1" t="s">
         <v>1559</v>
-      </c>
-      <c r="M682" s="1" t="s">
-        <v>1560</v>
       </c>
       <c r="N682" s="1">
         <v>1200</v>
@@ -30392,7 +30400,7 @@
         <v>373</v>
       </c>
       <c r="P682" s="4" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="Q682" s="4" t="s">
         <v>375</v>
@@ -30419,7 +30427,7 @@
         <v>8</v>
       </c>
       <c r="E683" s="1" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="F683" s="1" t="s">
         <v>167</v>
@@ -30443,7 +30451,7 @@
         <v>9</v>
       </c>
       <c r="E684" s="1" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="F684" s="1" t="s">
         <v>85</v>
@@ -30476,10 +30484,10 @@
         <v>10</v>
       </c>
       <c r="E685" s="1" t="s">
+        <v>1563</v>
+      </c>
+      <c r="F685" s="1" t="s">
         <v>1564</v>
-      </c>
-      <c r="F685" s="1" t="s">
-        <v>1565</v>
       </c>
       <c r="H685" s="2"/>
       <c r="J685" s="30"/>
@@ -30500,7 +30508,7 @@
         <v>11</v>
       </c>
       <c r="E686" s="1" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="F686" s="1" t="s">
         <v>141</v>
@@ -30526,10 +30534,10 @@
         <v>12</v>
       </c>
       <c r="E687" s="1" t="s">
+        <v>1566</v>
+      </c>
+      <c r="F687" s="1" t="s">
         <v>1567</v>
-      </c>
-      <c r="F687" s="1" t="s">
-        <v>1568</v>
       </c>
       <c r="H687" s="2" t="s">
         <v>375</v>
@@ -30552,7 +30560,7 @@
         <v>13</v>
       </c>
       <c r="E688" s="1" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="F688" s="1" t="s">
         <v>141</v>
@@ -30576,7 +30584,7 @@
         <v>14</v>
       </c>
       <c r="E689" s="1" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="F689" s="1" t="s">
         <v>213</v>
@@ -30607,7 +30615,7 @@
         <v>15</v>
       </c>
       <c r="E690" s="1" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="F690" s="1" t="s">
         <v>241</v>
@@ -30619,10 +30627,10 @@
         <v>2014</v>
       </c>
       <c r="J690" s="38" t="s">
+        <v>1571</v>
+      </c>
+      <c r="L690" s="28" t="s">
         <v>1572</v>
-      </c>
-      <c r="L690" s="28" t="s">
-        <v>1573</v>
       </c>
       <c r="M690" s="47"/>
       <c r="N690" s="1">
@@ -30632,7 +30640,7 @@
         <v>373</v>
       </c>
       <c r="P690" s="28" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="Q690" s="28" t="s">
         <v>376</v>
@@ -30644,10 +30652,10 @@
         <v>376</v>
       </c>
       <c r="U690" s="19" t="s">
+        <v>1574</v>
+      </c>
+      <c r="V690" s="49" t="s">
         <v>1575</v>
-      </c>
-      <c r="V690" s="49" t="s">
-        <v>1576</v>
       </c>
     </row>
     <row r="691" spans="1:22" x14ac:dyDescent="0.2">
@@ -30664,7 +30672,7 @@
         <v>16</v>
       </c>
       <c r="E691" s="1" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="F691" s="1" t="s">
         <v>251</v>
@@ -30690,10 +30698,10 @@
         <v>17</v>
       </c>
       <c r="E692" s="1" t="s">
+        <v>1577</v>
+      </c>
+      <c r="F692" s="1" t="s">
         <v>1578</v>
-      </c>
-      <c r="F692" s="1" t="s">
-        <v>1579</v>
       </c>
       <c r="H692" s="2"/>
       <c r="J692" s="30"/>
@@ -30714,13 +30722,13 @@
         <v>18</v>
       </c>
       <c r="E693" s="1" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="F693" s="1" t="s">
         <v>139</v>
       </c>
       <c r="G693" s="28" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="H693" s="26" t="s">
         <v>375</v>
@@ -30729,16 +30737,16 @@
         <v>2014</v>
       </c>
       <c r="J693" s="38" t="s">
+        <v>1581</v>
+      </c>
+      <c r="K693" s="19" t="s">
         <v>1582</v>
       </c>
-      <c r="K693" s="19" t="s">
+      <c r="L693" s="28" t="s">
         <v>1583</v>
       </c>
-      <c r="L693" s="28" t="s">
+      <c r="M693" s="55" t="s">
         <v>1584</v>
-      </c>
-      <c r="M693" s="55" t="s">
-        <v>1585</v>
       </c>
       <c r="N693" s="1">
         <v>1100</v>
@@ -30747,7 +30755,7 @@
         <v>373</v>
       </c>
       <c r="P693" s="28" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="Q693" s="28" t="s">
         <v>683</v>
@@ -30759,10 +30767,10 @@
         <v>375</v>
       </c>
       <c r="U693" s="19" t="s">
+        <v>1586</v>
+      </c>
+      <c r="V693" s="49" t="s">
         <v>1587</v>
-      </c>
-      <c r="V693" s="49" t="s">
-        <v>1588</v>
       </c>
     </row>
     <row r="694" spans="1:22" x14ac:dyDescent="0.2">
@@ -30839,16 +30847,16 @@
         <v>2014</v>
       </c>
       <c r="J696" s="34" t="s">
+        <v>1588</v>
+      </c>
+      <c r="K696" s="19" t="s">
         <v>1589</v>
       </c>
-      <c r="K696" s="19" t="s">
+      <c r="L696" s="28" t="s">
         <v>1590</v>
       </c>
-      <c r="L696" s="28" t="s">
+      <c r="M696" s="56" t="s">
         <v>1591</v>
-      </c>
-      <c r="M696" s="56" t="s">
-        <v>1592</v>
       </c>
       <c r="N696" s="1">
         <v>1230</v>
@@ -30857,7 +30865,7 @@
         <v>373</v>
       </c>
       <c r="P696" s="28" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="Q696" s="35" t="s">
         <v>376</v>
@@ -30940,7 +30948,7 @@
         <v>6</v>
       </c>
       <c r="E699" s="1" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="F699" s="1" t="s">
         <v>849</v>
@@ -30983,13 +30991,13 @@
         <v>2014</v>
       </c>
       <c r="J700" s="34" t="s">
+        <v>1594</v>
+      </c>
+      <c r="K700" s="20" t="s">
         <v>1595</v>
       </c>
-      <c r="K700" s="20" t="s">
+      <c r="L700" s="35" t="s">
         <v>1596</v>
-      </c>
-      <c r="L700" s="35" t="s">
-        <v>1597</v>
       </c>
       <c r="M700" s="36"/>
       <c r="N700" s="1">
@@ -30999,7 +31007,7 @@
         <v>373</v>
       </c>
       <c r="P700" s="35" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="Q700" s="35" t="s">
         <v>375</v>
@@ -31011,7 +31019,7 @@
         <v>375</v>
       </c>
       <c r="V700" s="24" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="701" spans="1:22" x14ac:dyDescent="0.2">
@@ -31028,10 +31036,10 @@
         <v>8</v>
       </c>
       <c r="E701" s="1" t="s">
+        <v>1599</v>
+      </c>
+      <c r="F701" s="1" t="s">
         <v>1600</v>
-      </c>
-      <c r="F701" s="1" t="s">
-        <v>1601</v>
       </c>
       <c r="H701" s="26" t="s">
         <v>376</v>
@@ -31040,11 +31048,11 @@
         <v>2014</v>
       </c>
       <c r="J701" s="40" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="K701" s="19"/>
       <c r="L701" s="3" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="M701" s="51"/>
       <c r="N701" s="1">
@@ -31054,7 +31062,7 @@
         <v>548</v>
       </c>
       <c r="P701" s="4" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="Q701" s="4" t="s">
         <v>375</v>
@@ -31066,10 +31074,10 @@
         <v>375</v>
       </c>
       <c r="U701" s="19" t="s">
+        <v>1603</v>
+      </c>
+      <c r="V701" s="49" t="s">
         <v>1604</v>
-      </c>
-      <c r="V701" s="49" t="s">
-        <v>1605</v>
       </c>
     </row>
     <row r="702" spans="1:22" x14ac:dyDescent="0.2">
@@ -31086,7 +31094,7 @@
         <v>9</v>
       </c>
       <c r="E702" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="F702" s="1" t="s">
         <v>24</v>
@@ -31144,7 +31152,7 @@
         <v>11</v>
       </c>
       <c r="E704" s="1" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="F704" s="1" t="s">
         <v>146</v>
@@ -31168,7 +31176,7 @@
         <v>12</v>
       </c>
       <c r="E705" s="1" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="F705" s="1" t="s">
         <v>85</v>
@@ -31180,13 +31188,13 @@
         <v>2014</v>
       </c>
       <c r="J705" s="30" t="s">
+        <v>1608</v>
+      </c>
+      <c r="K705" s="19" t="s">
         <v>1609</v>
       </c>
-      <c r="K705" s="19" t="s">
+      <c r="L705" s="1" t="s">
         <v>1610</v>
-      </c>
-      <c r="L705" s="1" t="s">
-        <v>1611</v>
       </c>
       <c r="N705" s="1">
         <v>1230</v>
@@ -31195,19 +31203,19 @@
         <v>373</v>
       </c>
       <c r="P705" s="1" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="Q705" s="1" t="s">
         <v>375</v>
       </c>
       <c r="R705" s="1" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="S705" s="1" t="s">
         <v>376</v>
       </c>
       <c r="V705" s="24" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="706" spans="1:22" x14ac:dyDescent="0.2">
@@ -31224,7 +31232,7 @@
         <v>13</v>
       </c>
       <c r="E706" s="1" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="F706" s="1" t="s">
         <v>81</v>
@@ -31252,7 +31260,7 @@
         <v>14</v>
       </c>
       <c r="E707" s="1" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="F707" s="1" t="s">
         <v>241</v>
@@ -31264,16 +31272,16 @@
         <v>2014</v>
       </c>
       <c r="J707" s="38" t="s">
+        <v>1616</v>
+      </c>
+      <c r="K707" s="19" t="s">
         <v>1617</v>
-      </c>
-      <c r="K707" s="19" t="s">
-        <v>1618</v>
       </c>
       <c r="L707" s="28" t="s">
         <v>597</v>
       </c>
       <c r="M707" s="55" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="N707" s="1">
         <v>1121</v>
@@ -31282,7 +31290,7 @@
         <v>373</v>
       </c>
       <c r="P707" s="28" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="Q707" s="28" t="s">
         <v>375</v>
@@ -31294,7 +31302,7 @@
         <v>376</v>
       </c>
       <c r="U707" s="19" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="V707" s="50"/>
     </row>
@@ -31312,7 +31320,7 @@
         <v>15</v>
       </c>
       <c r="E708" s="1" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="F708" s="1" t="s">
         <v>241</v>
@@ -31343,7 +31351,7 @@
         <v>16</v>
       </c>
       <c r="E709" s="1" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="F709" s="1" t="s">
         <v>146</v>
@@ -31367,7 +31375,7 @@
         <v>17</v>
       </c>
       <c r="E710" s="1" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="F710" s="1" t="s">
         <v>197</v>
@@ -31379,20 +31387,20 @@
         <v>2014</v>
       </c>
       <c r="J710" s="38" t="s">
+        <v>1624</v>
+      </c>
+      <c r="L710" s="28" t="s">
         <v>1625</v>
-      </c>
-      <c r="L710" s="28" t="s">
-        <v>1626</v>
       </c>
       <c r="M710" s="47"/>
       <c r="N710" s="1">
         <v>1010</v>
       </c>
       <c r="O710" s="28" t="s">
+        <v>1626</v>
+      </c>
+      <c r="P710" s="28" t="s">
         <v>1627</v>
-      </c>
-      <c r="P710" s="28" t="s">
-        <v>1628</v>
       </c>
       <c r="Q710" s="28" t="s">
         <v>376</v>
@@ -31404,10 +31412,10 @@
         <v>376</v>
       </c>
       <c r="U710" s="19" t="s">
+        <v>1628</v>
+      </c>
+      <c r="V710" s="49" t="s">
         <v>1629</v>
-      </c>
-      <c r="V710" s="49" t="s">
-        <v>1630</v>
       </c>
     </row>
     <row r="711" spans="1:22" x14ac:dyDescent="0.2">
@@ -31424,32 +31432,32 @@
         <v>18</v>
       </c>
       <c r="E711" s="1" t="s">
+        <v>1630</v>
+      </c>
+      <c r="F711" s="1" t="s">
         <v>1631</v>
-      </c>
-      <c r="F711" s="1" t="s">
-        <v>1632</v>
       </c>
       <c r="H711" s="2"/>
       <c r="I711" s="24">
         <v>2014</v>
       </c>
       <c r="J711" s="30" t="s">
+        <v>1632</v>
+      </c>
+      <c r="K711" s="19" t="s">
         <v>1633</v>
       </c>
-      <c r="K711" s="19" t="s">
+      <c r="L711" s="1" t="s">
         <v>1634</v>
-      </c>
-      <c r="L711" s="1" t="s">
-        <v>1635</v>
       </c>
       <c r="N711" s="1">
         <v>3412</v>
       </c>
       <c r="O711" s="1" t="s">
+        <v>1635</v>
+      </c>
+      <c r="P711" s="1" t="s">
         <v>1636</v>
-      </c>
-      <c r="P711" s="1" t="s">
-        <v>1637</v>
       </c>
       <c r="Q711" s="1" t="s">
         <v>376</v>
@@ -31478,13 +31486,13 @@
         <v>19</v>
       </c>
       <c r="E712" s="1" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="F712" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G712" s="28" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="H712" s="26" t="s">
         <v>376</v>
@@ -31493,16 +31501,16 @@
         <v>2014</v>
       </c>
       <c r="J712" s="38" t="s">
+        <v>1639</v>
+      </c>
+      <c r="K712" s="19" t="s">
         <v>1640</v>
       </c>
-      <c r="K712" s="19" t="s">
+      <c r="L712" s="1" t="s">
         <v>1641</v>
       </c>
-      <c r="L712" s="1" t="s">
+      <c r="M712" s="55" t="s">
         <v>1642</v>
-      </c>
-      <c r="M712" s="55" t="s">
-        <v>1643</v>
       </c>
       <c r="N712" s="1">
         <v>3109</v>
@@ -31511,7 +31519,7 @@
         <v>1106</v>
       </c>
       <c r="P712" s="28" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="Q712" s="28" t="s">
         <v>376</v>
@@ -31538,7 +31546,7 @@
         <v>20</v>
       </c>
       <c r="E713" s="1" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="F713" s="1" t="s">
         <v>64</v>
@@ -31550,13 +31558,13 @@
         <v>2014</v>
       </c>
       <c r="J713" s="38" t="s">
+        <v>1645</v>
+      </c>
+      <c r="L713" s="28" t="s">
         <v>1646</v>
       </c>
-      <c r="L713" s="28" t="s">
+      <c r="M713" s="55" t="s">
         <v>1647</v>
-      </c>
-      <c r="M713" s="55" t="s">
-        <v>1648</v>
       </c>
       <c r="N713" s="1">
         <v>1150</v>
@@ -31577,7 +31585,7 @@
         <v>376</v>
       </c>
       <c r="U713" s="20" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="V713" s="62"/>
     </row>
@@ -31601,7 +31609,7 @@
         <v>656</v>
       </c>
       <c r="G714" s="28" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="H714" s="26" t="s">
         <v>375</v>
@@ -31610,16 +31618,16 @@
         <v>2014</v>
       </c>
       <c r="J714" s="38" t="s">
+        <v>1650</v>
+      </c>
+      <c r="K714" s="19" t="s">
         <v>1651</v>
       </c>
-      <c r="K714" s="19" t="s">
+      <c r="L714" s="28" t="s">
         <v>1652</v>
       </c>
-      <c r="L714" s="28" t="s">
+      <c r="M714" s="55" t="s">
         <v>1653</v>
-      </c>
-      <c r="M714" s="55" t="s">
-        <v>1654</v>
       </c>
       <c r="N714" s="1">
         <v>1040</v>
@@ -31628,7 +31636,7 @@
         <v>373</v>
       </c>
       <c r="P714" s="28" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="Q714" s="28" t="s">
         <v>375</v>
@@ -31640,7 +31648,7 @@
         <v>375</v>
       </c>
       <c r="U714" s="19" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="V714" s="50"/>
     </row>
@@ -31658,7 +31666,7 @@
         <v>22</v>
       </c>
       <c r="E715" s="1" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="F715" s="1" t="s">
         <v>167</v>
@@ -31682,7 +31690,7 @@
         <v>23</v>
       </c>
       <c r="E716" s="1" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="F716" s="1" t="s">
         <v>141</v>
@@ -31706,10 +31714,10 @@
         <v>1</v>
       </c>
       <c r="E717" s="1" t="s">
+        <v>1658</v>
+      </c>
+      <c r="F717" s="1" t="s">
         <v>1659</v>
-      </c>
-      <c r="F717" s="1" t="s">
-        <v>1660</v>
       </c>
       <c r="H717" s="2"/>
       <c r="J717" s="30"/>
@@ -31736,7 +31744,7 @@
         <v>93</v>
       </c>
       <c r="G718" s="28" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="H718" s="26" t="s">
         <v>375</v>
@@ -31745,16 +31753,16 @@
         <v>2014</v>
       </c>
       <c r="J718" s="38" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="K718" s="19" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="L718" s="28" t="s">
         <v>597</v>
       </c>
       <c r="M718" s="55" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="N718" s="1">
         <v>1150</v>
@@ -31775,7 +31783,7 @@
         <v>376</v>
       </c>
       <c r="U718" s="19" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="V718" s="49"/>
     </row>
@@ -31793,10 +31801,10 @@
         <v>3</v>
       </c>
       <c r="E719" s="1" t="s">
+        <v>1663</v>
+      </c>
+      <c r="F719" s="1" t="s">
         <v>1664</v>
-      </c>
-      <c r="F719" s="1" t="s">
-        <v>1665</v>
       </c>
       <c r="H719" s="2"/>
       <c r="J719" s="30"/>
@@ -31841,7 +31849,7 @@
         <v>5</v>
       </c>
       <c r="E721" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="F721" s="1" t="s">
         <v>167</v>
@@ -31865,10 +31873,10 @@
         <v>6</v>
       </c>
       <c r="E722" s="1" t="s">
+        <v>1666</v>
+      </c>
+      <c r="F722" s="1" t="s">
         <v>1667</v>
-      </c>
-      <c r="F722" s="1" t="s">
-        <v>1668</v>
       </c>
       <c r="H722" s="26" t="s">
         <v>375</v>
@@ -31877,7 +31885,7 @@
         <v>2014</v>
       </c>
       <c r="J722" s="38" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="L722" s="28" t="s">
         <v>982</v>
@@ -31895,10 +31903,10 @@
         <v>375</v>
       </c>
       <c r="U722" s="20" t="s">
+        <v>1669</v>
+      </c>
+      <c r="V722" s="61" t="s">
         <v>1670</v>
-      </c>
-      <c r="V722" s="61" t="s">
-        <v>1671</v>
       </c>
     </row>
     <row r="723" spans="1:22" x14ac:dyDescent="0.2">
@@ -31915,13 +31923,13 @@
         <v>7</v>
       </c>
       <c r="E723" s="1" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="F723" s="1" t="s">
         <v>167</v>
       </c>
       <c r="G723" s="28" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="H723" s="26" t="s">
         <v>375</v>
@@ -31930,16 +31938,16 @@
         <v>2014</v>
       </c>
       <c r="J723" s="38" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="K723" s="19" t="s">
+        <v>1673</v>
+      </c>
+      <c r="L723" s="28" t="s">
         <v>1674</v>
       </c>
-      <c r="L723" s="28" t="s">
+      <c r="M723" s="55" t="s">
         <v>1675</v>
-      </c>
-      <c r="M723" s="55" t="s">
-        <v>1676</v>
       </c>
       <c r="N723" s="1">
         <v>1100</v>
@@ -31948,7 +31956,7 @@
         <v>373</v>
       </c>
       <c r="P723" s="28" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="Q723" s="28" t="s">
         <v>683</v>
@@ -31960,7 +31968,7 @@
         <v>375</v>
       </c>
       <c r="V723" s="49" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="724" spans="1:22" x14ac:dyDescent="0.2">
@@ -31977,7 +31985,7 @@
         <v>8</v>
       </c>
       <c r="E724" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="F724" s="1" t="s">
         <v>209</v>
@@ -32001,7 +32009,7 @@
         <v>373</v>
       </c>
       <c r="P724" s="1" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="Q724" s="1" t="s">
         <v>375</v>
@@ -32010,7 +32018,7 @@
         <v>375</v>
       </c>
       <c r="U724" s="19" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="V724" s="24"/>
     </row>
@@ -32028,7 +32036,7 @@
         <v>9</v>
       </c>
       <c r="E725" s="1" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="F725" s="1" t="s">
         <v>152</v>
@@ -32040,13 +32048,13 @@
         <v>2014</v>
       </c>
       <c r="J725" s="31" t="s">
+        <v>1681</v>
+      </c>
+      <c r="K725" s="20" t="s">
         <v>1682</v>
       </c>
-      <c r="K725" s="20" t="s">
-        <v>1683</v>
-      </c>
       <c r="L725" s="28" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="M725" s="47"/>
       <c r="N725" s="1">
@@ -32056,7 +32064,7 @@
         <v>373</v>
       </c>
       <c r="P725" s="3" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="Q725" s="3" t="s">
         <v>376</v>
@@ -32068,7 +32076,7 @@
         <v>376</v>
       </c>
       <c r="V725" s="59" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="726" spans="1:22" x14ac:dyDescent="0.2">
@@ -32085,7 +32093,7 @@
         <v>10</v>
       </c>
       <c r="E726" s="1" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="F726" s="1" t="s">
         <v>89</v>
@@ -32118,7 +32126,7 @@
         <v>11</v>
       </c>
       <c r="E727" s="1" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="F727" s="1" t="s">
         <v>234</v>
@@ -32133,7 +32141,7 @@
         <v>829</v>
       </c>
       <c r="L727" s="28" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="M727" s="47"/>
       <c r="N727" s="1">
@@ -32143,7 +32151,7 @@
         <v>833</v>
       </c>
       <c r="P727" s="28" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="Q727" s="28" t="s">
         <v>375</v>
@@ -32155,10 +32163,10 @@
         <v>375</v>
       </c>
       <c r="U727" s="19" t="s">
+        <v>1689</v>
+      </c>
+      <c r="V727" s="49" t="s">
         <v>1690</v>
-      </c>
-      <c r="V727" s="49" t="s">
-        <v>1691</v>
       </c>
     </row>
     <row r="728" spans="1:22" x14ac:dyDescent="0.2">
@@ -32175,7 +32183,7 @@
         <v>12</v>
       </c>
       <c r="E728" s="1" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="F728" s="1" t="s">
         <v>103</v>
@@ -32190,7 +32198,7 @@
         <v>390</v>
       </c>
       <c r="L728" s="28" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="M728" s="47"/>
       <c r="N728" s="1">
@@ -32200,7 +32208,7 @@
         <v>373</v>
       </c>
       <c r="P728" s="28" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="Q728" s="28" t="s">
         <v>375</v>
@@ -32212,10 +32220,10 @@
         <v>375</v>
       </c>
       <c r="U728" s="19" t="s">
+        <v>1694</v>
+      </c>
+      <c r="V728" s="49" t="s">
         <v>1695</v>
-      </c>
-      <c r="V728" s="49" t="s">
-        <v>1696</v>
       </c>
     </row>
     <row r="729" spans="1:22" x14ac:dyDescent="0.2">
@@ -32232,7 +32240,7 @@
         <v>13</v>
       </c>
       <c r="E729" s="1" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="F729" s="1" t="s">
         <v>24</v>
@@ -32288,7 +32296,7 @@
         <v>15</v>
       </c>
       <c r="E731" s="1" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="F731" s="1" t="s">
         <v>247</v>
@@ -32312,10 +32320,10 @@
         <v>16</v>
       </c>
       <c r="E732" s="1" t="s">
+        <v>1697</v>
+      </c>
+      <c r="F732" s="1" t="s">
         <v>1698</v>
-      </c>
-      <c r="F732" s="1" t="s">
-        <v>1699</v>
       </c>
       <c r="H732" s="2" t="s">
         <v>375</v>
@@ -32338,7 +32346,7 @@
         <v>17</v>
       </c>
       <c r="E733" s="1" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="F733" s="1" t="s">
         <v>146</v>
@@ -32364,10 +32372,10 @@
         <v>18</v>
       </c>
       <c r="E734" s="1" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="F734" s="1" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="H734" s="2"/>
       <c r="J734" s="30"/>
@@ -32388,10 +32396,10 @@
         <v>19</v>
       </c>
       <c r="E735" s="1" t="s">
+        <v>1701</v>
+      </c>
+      <c r="F735" s="1" t="s">
         <v>1702</v>
-      </c>
-      <c r="F735" s="1" t="s">
-        <v>1703</v>
       </c>
       <c r="H735" s="26" t="s">
         <v>376</v>
@@ -32400,17 +32408,17 @@
         <v>2014</v>
       </c>
       <c r="J735" s="38" t="s">
+        <v>1703</v>
+      </c>
+      <c r="L735" s="28" t="s">
         <v>1704</v>
-      </c>
-      <c r="L735" s="28" t="s">
-        <v>1705</v>
       </c>
       <c r="M735" s="47"/>
       <c r="O735" s="28" t="s">
+        <v>1705</v>
+      </c>
+      <c r="P735" s="28" t="s">
         <v>1706</v>
-      </c>
-      <c r="P735" s="28" t="s">
-        <v>1707</v>
       </c>
       <c r="Q735" s="28" t="s">
         <v>376</v>
@@ -32422,10 +32430,10 @@
         <v>375</v>
       </c>
       <c r="U735" s="19" t="s">
+        <v>1707</v>
+      </c>
+      <c r="V735" s="49" t="s">
         <v>1708</v>
-      </c>
-      <c r="V735" s="49" t="s">
-        <v>1709</v>
       </c>
     </row>
     <row r="736" spans="1:22" x14ac:dyDescent="0.2">
@@ -32442,7 +32450,7 @@
         <v>1</v>
       </c>
       <c r="E736" s="1" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="F736" s="1" t="s">
         <v>141</v>
@@ -32516,7 +32524,7 @@
         <v>4</v>
       </c>
       <c r="E739" s="1" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="F739" s="1" t="s">
         <v>75</v>
@@ -32540,7 +32548,7 @@
         <v>5</v>
       </c>
       <c r="E740" s="1" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="F740" s="1" t="s">
         <v>247</v>
@@ -32612,7 +32620,7 @@
         <v>8</v>
       </c>
       <c r="E743" s="1" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="F743" s="1" t="s">
         <v>167</v>
@@ -32638,7 +32646,7 @@
         <v>9</v>
       </c>
       <c r="E744" s="1" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="F744" s="1" t="s">
         <v>137</v>
@@ -32662,10 +32670,10 @@
         <v>10</v>
       </c>
       <c r="E745" s="1" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F745" s="1" t="s">
         <v>1715</v>
-      </c>
-      <c r="F745" s="1" t="s">
-        <v>1716</v>
       </c>
       <c r="H745" s="26" t="s">
         <v>375</v>
@@ -32674,20 +32682,20 @@
         <v>2014</v>
       </c>
       <c r="J745" s="38" t="s">
+        <v>1716</v>
+      </c>
+      <c r="L745" s="28" t="s">
         <v>1717</v>
-      </c>
-      <c r="L745" s="28" t="s">
-        <v>1718</v>
       </c>
       <c r="M745" s="47"/>
       <c r="N745" s="48" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="O745" s="28" t="s">
         <v>373</v>
       </c>
       <c r="P745" s="48" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="Q745" s="28" t="s">
         <v>376</v>
@@ -32699,10 +32707,10 @@
         <v>376</v>
       </c>
       <c r="U745" s="19" t="s">
+        <v>1720</v>
+      </c>
+      <c r="V745" s="49" t="s">
         <v>1721</v>
-      </c>
-      <c r="V745" s="49" t="s">
-        <v>1722</v>
       </c>
     </row>
     <row r="746" spans="1:22" x14ac:dyDescent="0.2">
@@ -32719,7 +32727,7 @@
         <v>11</v>
       </c>
       <c r="E746" s="1" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="F746" s="1" t="s">
         <v>209</v>
@@ -32745,7 +32753,7 @@
         <v>12</v>
       </c>
       <c r="E747" s="1" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="F747" s="1" t="s">
         <v>334</v>
@@ -32771,10 +32779,10 @@
         <v>13</v>
       </c>
       <c r="E748" s="1" t="s">
+        <v>1724</v>
+      </c>
+      <c r="F748" s="1" t="s">
         <v>1725</v>
-      </c>
-      <c r="F748" s="1" t="s">
-        <v>1726</v>
       </c>
       <c r="H748" s="2"/>
       <c r="J748" s="30"/>
@@ -32819,7 +32827,7 @@
         <v>2</v>
       </c>
       <c r="E750" s="1" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="F750" s="1" t="s">
         <v>249</v>
@@ -32869,7 +32877,7 @@
         <v>4</v>
       </c>
       <c r="E752" s="1" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="F752" s="1" t="s">
         <v>141</v>
@@ -32893,10 +32901,10 @@
         <v>5</v>
       </c>
       <c r="E753" s="1" t="s">
+        <v>1728</v>
+      </c>
+      <c r="F753" s="1" t="s">
         <v>1729</v>
-      </c>
-      <c r="F753" s="1" t="s">
-        <v>1730</v>
       </c>
       <c r="H753" s="2" t="s">
         <v>375</v>
@@ -32919,7 +32927,7 @@
         <v>6</v>
       </c>
       <c r="E754" s="1" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="F754" s="1" t="s">
         <v>123</v>
@@ -32943,7 +32951,7 @@
         <v>7</v>
       </c>
       <c r="E755" s="1" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="F755" s="1" t="s">
         <v>87</v>
@@ -32967,10 +32975,10 @@
         <v>8</v>
       </c>
       <c r="E756" s="1" t="s">
+        <v>1732</v>
+      </c>
+      <c r="F756" s="1" t="s">
         <v>1733</v>
-      </c>
-      <c r="F756" s="1" t="s">
-        <v>1734</v>
       </c>
       <c r="H756" s="2"/>
       <c r="J756" s="30"/>
@@ -32991,10 +32999,10 @@
         <v>9</v>
       </c>
       <c r="E757" s="1" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="F757" s="1" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="H757" s="2"/>
       <c r="J757" s="31"/>
@@ -33021,7 +33029,7 @@
         <v>10</v>
       </c>
       <c r="E758" s="1" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="F758" s="1" t="s">
         <v>197</v>
@@ -33045,7 +33053,7 @@
         <v>11</v>
       </c>
       <c r="E759" s="1" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="F759" s="1" t="s">
         <v>87</v>
@@ -33069,7 +33077,7 @@
         <v>12</v>
       </c>
       <c r="E760" s="1" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="F760" s="1" t="s">
         <v>24</v>
@@ -33093,7 +33101,7 @@
         <v>13</v>
       </c>
       <c r="E761" s="1" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="F761" s="1" t="s">
         <v>87</v>
@@ -33117,7 +33125,7 @@
         <v>14</v>
       </c>
       <c r="E762" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F762" s="1" t="s">
         <v>123</v>
@@ -33141,7 +33149,7 @@
         <v>15</v>
       </c>
       <c r="E763" s="1" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="F763" s="1" t="s">
         <v>207</v>
@@ -33170,10 +33178,10 @@
         <v>1</v>
       </c>
       <c r="E764" s="1" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="F764" s="1" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="H764" s="2"/>
       <c r="J764" s="30"/>
@@ -33194,7 +33202,7 @@
         <v>2</v>
       </c>
       <c r="E765" s="1" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="F765" s="1" t="s">
         <v>167</v>
@@ -33218,10 +33226,10 @@
         <v>3</v>
       </c>
       <c r="E766" s="1" t="s">
+        <v>1742</v>
+      </c>
+      <c r="F766" s="1" t="s">
         <v>1743</v>
-      </c>
-      <c r="F766" s="1" t="s">
-        <v>1744</v>
       </c>
       <c r="H766" s="2"/>
       <c r="J766" s="30"/>
@@ -33242,7 +33250,7 @@
         <v>4</v>
       </c>
       <c r="E767" s="1" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="F767" s="1" t="s">
         <v>304</v>
@@ -33266,7 +33274,7 @@
         <v>5</v>
       </c>
       <c r="E768" s="1" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="F768" s="1" t="s">
         <v>141</v>
@@ -33290,7 +33298,7 @@
         <v>6</v>
       </c>
       <c r="E769" s="1" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="F769" s="1" t="s">
         <v>141</v>
@@ -33314,7 +33322,7 @@
         <v>7</v>
       </c>
       <c r="E770" s="1" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="F770" s="1" t="s">
         <v>334</v>
@@ -33338,7 +33346,7 @@
         <v>8</v>
       </c>
       <c r="E771" s="1" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="F771" s="1" t="s">
         <v>62</v>
@@ -33369,7 +33377,7 @@
         <v>9</v>
       </c>
       <c r="E772" s="1" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="F772" s="1" t="s">
         <v>81</v>
@@ -33424,7 +33432,7 @@
         <v>11</v>
       </c>
       <c r="E774" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="F774" s="1" t="s">
         <v>89</v>
@@ -33448,7 +33456,7 @@
         <v>12</v>
       </c>
       <c r="E775" s="1" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="F775" s="1" t="s">
         <v>87</v>
@@ -33463,7 +33471,7 @@
         <v>411</v>
       </c>
       <c r="L775" s="3" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="M775" s="1">
         <v>15880138725</v>
@@ -33475,7 +33483,7 @@
         <v>373</v>
       </c>
       <c r="P775" s="3" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="Q775" s="4" t="s">
         <v>375</v>
@@ -33487,7 +33495,7 @@
         <v>375</v>
       </c>
       <c r="U775" s="20" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="V775" s="24"/>
     </row>
@@ -33531,7 +33539,7 @@
         <v>14</v>
       </c>
       <c r="E777" s="1" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="F777" s="1" t="s">
         <v>123</v>
@@ -33562,7 +33570,7 @@
         <v>15</v>
       </c>
       <c r="E778" s="1" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="F778" s="1" t="s">
         <v>249</v>
@@ -33610,7 +33618,7 @@
         <v>17</v>
       </c>
       <c r="E780" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="F780" s="1" t="s">
         <v>205</v>
@@ -33636,7 +33644,7 @@
         <v>18</v>
       </c>
       <c r="E781" s="1" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="F781" s="1" t="s">
         <v>263</v>
@@ -33660,13 +33668,13 @@
         <v>1</v>
       </c>
       <c r="E782" s="1" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="F782" s="1" t="s">
         <v>103</v>
       </c>
       <c r="G782" s="28" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="H782" s="26" t="s">
         <v>375</v>
@@ -33675,16 +33683,16 @@
         <v>2014</v>
       </c>
       <c r="J782" s="38" t="s">
+        <v>1760</v>
+      </c>
+      <c r="K782" s="19" t="s">
         <v>1761</v>
       </c>
-      <c r="K782" s="19" t="s">
+      <c r="L782" s="28" t="s">
         <v>1762</v>
       </c>
-      <c r="L782" s="28" t="s">
+      <c r="M782" s="55" t="s">
         <v>1763</v>
-      </c>
-      <c r="M782" s="55" t="s">
-        <v>1764</v>
       </c>
       <c r="N782" s="1">
         <v>1215</v>
@@ -33693,7 +33701,7 @@
         <v>373</v>
       </c>
       <c r="P782" s="28" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="Q782" s="28" t="s">
         <v>375</v>
@@ -33705,7 +33713,7 @@
         <v>376</v>
       </c>
       <c r="U782" s="19" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="V782" s="50"/>
     </row>
@@ -33723,7 +33731,7 @@
         <v>2</v>
       </c>
       <c r="E783" s="1" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="F783" s="1" t="s">
         <v>103</v>
@@ -33747,7 +33755,7 @@
         <v>3</v>
       </c>
       <c r="E784" s="1" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="F784" s="1" t="s">
         <v>207</v>
@@ -33759,10 +33767,10 @@
         <v>2014</v>
       </c>
       <c r="J784" s="38" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="L784" s="28" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="M784" s="47"/>
       <c r="N784" s="1">
@@ -33772,7 +33780,7 @@
         <v>373</v>
       </c>
       <c r="P784" s="28" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="Q784" s="28" t="s">
         <v>375</v>
@@ -33784,7 +33792,7 @@
         <v>375</v>
       </c>
       <c r="U784" s="19" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="V784" s="50"/>
     </row>
@@ -33802,7 +33810,7 @@
         <v>4</v>
       </c>
       <c r="E785" s="1" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="F785" s="1" t="s">
         <v>87</v>
@@ -33812,13 +33820,13 @@
         <v>2014</v>
       </c>
       <c r="J785" s="24" t="s">
+        <v>1772</v>
+      </c>
+      <c r="K785" s="19" t="s">
         <v>1773</v>
       </c>
-      <c r="K785" s="19" t="s">
+      <c r="L785" s="1" t="s">
         <v>1774</v>
-      </c>
-      <c r="L785" s="1" t="s">
-        <v>1775</v>
       </c>
       <c r="N785" s="1">
         <v>1190</v>
@@ -33827,13 +33835,13 @@
         <v>373</v>
       </c>
       <c r="P785" s="1" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="Q785" s="1" t="s">
         <v>375</v>
       </c>
       <c r="R785" s="1" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="S785" s="1" t="s">
         <v>376</v>
@@ -33854,7 +33862,7 @@
         <v>5</v>
       </c>
       <c r="E786" s="1" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="F786" s="1" t="s">
         <v>137</v>
@@ -33869,17 +33877,17 @@
         <v>1019</v>
       </c>
       <c r="L786" s="3" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="M786" s="47"/>
       <c r="N786" s="1">
         <v>2330</v>
       </c>
       <c r="O786" s="3" t="s">
+        <v>1778</v>
+      </c>
+      <c r="P786" s="3" t="s">
         <v>1779</v>
-      </c>
-      <c r="P786" s="3" t="s">
-        <v>1780</v>
       </c>
       <c r="Q786" s="4" t="s">
         <v>375</v>
@@ -33891,10 +33899,10 @@
         <v>375</v>
       </c>
       <c r="U786" s="20" t="s">
+        <v>1780</v>
+      </c>
+      <c r="V786" s="59" t="s">
         <v>1781</v>
-      </c>
-      <c r="V786" s="59" t="s">
-        <v>1782</v>
       </c>
     </row>
     <row r="787" spans="1:22" x14ac:dyDescent="0.2">
@@ -33911,7 +33919,7 @@
         <v>6</v>
       </c>
       <c r="E787" s="1" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="F787" s="1" t="s">
         <v>241</v>
@@ -33935,7 +33943,7 @@
         <v>7</v>
       </c>
       <c r="E788" s="1" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="F788" s="1" t="s">
         <v>41</v>
@@ -33959,7 +33967,7 @@
         <v>8</v>
       </c>
       <c r="E789" s="1" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="F789" s="1" t="s">
         <v>325</v>
@@ -33974,13 +33982,13 @@
         <v>411</v>
       </c>
       <c r="K789" s="19" t="s">
+        <v>1785</v>
+      </c>
+      <c r="L789" s="28" t="s">
         <v>1786</v>
       </c>
-      <c r="L789" s="28" t="s">
+      <c r="M789" s="55" t="s">
         <v>1787</v>
-      </c>
-      <c r="M789" s="55" t="s">
-        <v>1788</v>
       </c>
       <c r="Q789" s="28" t="s">
         <v>375</v>
@@ -34031,13 +34039,13 @@
         <v>10</v>
       </c>
       <c r="E791" s="1" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="F791" s="1" t="s">
         <v>103</v>
       </c>
       <c r="G791" s="28" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="H791" s="26" t="s">
         <v>375</v>
@@ -34046,22 +34054,22 @@
         <v>2014</v>
       </c>
       <c r="J791" s="40" t="s">
+        <v>1789</v>
+      </c>
+      <c r="K791" s="19" t="s">
         <v>1790</v>
       </c>
-      <c r="K791" s="19" t="s">
+      <c r="M791" s="55" t="s">
         <v>1791</v>
-      </c>
-      <c r="M791" s="55" t="s">
-        <v>1792</v>
       </c>
       <c r="N791" s="1">
         <v>1150</v>
       </c>
       <c r="O791" s="28" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="P791" s="28" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="Q791" s="28" t="s">
         <v>375</v>
@@ -34073,10 +34081,10 @@
         <v>375</v>
       </c>
       <c r="U791" s="19" t="s">
+        <v>1793</v>
+      </c>
+      <c r="V791" s="58" t="s">
         <v>1794</v>
-      </c>
-      <c r="V791" s="58" t="s">
-        <v>1795</v>
       </c>
     </row>
     <row r="792" spans="1:22" x14ac:dyDescent="0.2">
@@ -34093,7 +34101,7 @@
         <v>11</v>
       </c>
       <c r="E792" s="1" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="F792" s="1" t="s">
         <v>234</v>
@@ -34117,7 +34125,7 @@
         <v>12</v>
       </c>
       <c r="E793" s="1" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="F793" s="1" t="s">
         <v>89</v>
@@ -34141,7 +34149,7 @@
         <v>13</v>
       </c>
       <c r="E794" s="1" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="F794" s="1" t="s">
         <v>87</v>
@@ -34153,23 +34161,23 @@
         <v>2014</v>
       </c>
       <c r="J794" s="31" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K794" s="19" t="s">
         <v>1799</v>
       </c>
-      <c r="K794" s="19" t="s">
+      <c r="L794" s="28" t="s">
         <v>1800</v>
-      </c>
-      <c r="L794" s="28" t="s">
-        <v>1801</v>
       </c>
       <c r="M794" s="47"/>
       <c r="N794" s="1">
         <v>3872</v>
       </c>
       <c r="O794" s="28" t="s">
+        <v>1801</v>
+      </c>
+      <c r="P794" s="28" t="s">
         <v>1802</v>
-      </c>
-      <c r="P794" s="28" t="s">
-        <v>1803</v>
       </c>
       <c r="Q794" s="28" t="s">
         <v>375</v>
@@ -34182,7 +34190,7 @@
       </c>
       <c r="U794" s="19"/>
       <c r="V794" s="58" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="795" spans="1:22" x14ac:dyDescent="0.2">
@@ -34199,7 +34207,7 @@
         <v>14</v>
       </c>
       <c r="E795" s="1" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="F795" s="1" t="s">
         <v>234</v>
@@ -34223,7 +34231,7 @@
         <v>15</v>
       </c>
       <c r="E796" s="1" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="F796" s="1" t="s">
         <v>1251</v>
@@ -34235,10 +34243,10 @@
         <v>2014</v>
       </c>
       <c r="J796" s="38" t="s">
+        <v>1806</v>
+      </c>
+      <c r="L796" s="28" t="s">
         <v>1807</v>
-      </c>
-      <c r="L796" s="28" t="s">
-        <v>1808</v>
       </c>
       <c r="M796" s="47"/>
       <c r="N796" s="1">
@@ -34248,7 +34256,7 @@
         <v>373</v>
       </c>
       <c r="P796" s="28" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="Q796" s="28" t="s">
         <v>376</v>
@@ -34260,10 +34268,10 @@
         <v>375</v>
       </c>
       <c r="U796" s="19" t="s">
+        <v>1809</v>
+      </c>
+      <c r="V796" s="49" t="s">
         <v>1810</v>
-      </c>
-      <c r="V796" s="49" t="s">
-        <v>1811</v>
       </c>
     </row>
     <row r="797" spans="1:22" x14ac:dyDescent="0.2">
@@ -34304,7 +34312,7 @@
         <v>1</v>
       </c>
       <c r="E798" s="1" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="F798" s="1" t="s">
         <v>167</v>
@@ -34328,7 +34336,7 @@
         <v>2</v>
       </c>
       <c r="E799" s="1" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="F799" s="1" t="s">
         <v>125</v>
@@ -34359,7 +34367,7 @@
         <v>3</v>
       </c>
       <c r="E800" s="1" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="F800" s="1" t="s">
         <v>343</v>
@@ -34407,7 +34415,7 @@
         <v>5</v>
       </c>
       <c r="E802" s="1" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="F802" s="1" t="s">
         <v>209</v>
@@ -34432,7 +34440,7 @@
         <v>6</v>
       </c>
       <c r="E803" s="1" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="F803" s="1" t="s">
         <v>334</v>
@@ -34465,10 +34473,10 @@
         <v>7</v>
       </c>
       <c r="E804" s="1" t="s">
+        <v>1815</v>
+      </c>
+      <c r="F804" s="1" t="s">
         <v>1816</v>
-      </c>
-      <c r="F804" s="1" t="s">
-        <v>1817</v>
       </c>
       <c r="H804" s="2"/>
       <c r="J804" s="30"/>
@@ -34489,7 +34497,7 @@
         <v>8</v>
       </c>
       <c r="E805" s="1" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="F805" s="1" t="s">
         <v>146</v>
@@ -34513,7 +34521,7 @@
         <v>9</v>
       </c>
       <c r="E806" s="1" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="F806" s="1" t="s">
         <v>103</v>
@@ -34537,7 +34545,7 @@
         <v>10</v>
       </c>
       <c r="E807" s="1" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="F807" s="1" t="s">
         <v>123</v>
@@ -34561,10 +34569,10 @@
         <v>11</v>
       </c>
       <c r="E808" s="1" t="s">
+        <v>1820</v>
+      </c>
+      <c r="F808" s="1" t="s">
         <v>1821</v>
-      </c>
-      <c r="F808" s="1" t="s">
-        <v>1822</v>
       </c>
       <c r="H808" s="2"/>
       <c r="J808" s="30"/>
@@ -34585,7 +34593,7 @@
         <v>12</v>
       </c>
       <c r="E809" s="1" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="F809" s="1" t="s">
         <v>249</v>
@@ -34609,7 +34617,7 @@
         <v>13</v>
       </c>
       <c r="E810" s="1" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="F810" s="1" t="s">
         <v>81</v>
@@ -34638,7 +34646,7 @@
         <v>14</v>
       </c>
       <c r="E811" s="1" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="F811" s="1" t="s">
         <v>334</v>
@@ -34662,10 +34670,10 @@
         <v>15</v>
       </c>
       <c r="E812" s="1" t="s">
+        <v>1825</v>
+      </c>
+      <c r="F812" s="1" t="s">
         <v>1826</v>
-      </c>
-      <c r="F812" s="1" t="s">
-        <v>1827</v>
       </c>
       <c r="H812" s="2"/>
       <c r="J812" s="30"/>
@@ -34686,10 +34694,10 @@
         <v>16</v>
       </c>
       <c r="E813" s="1" t="s">
+        <v>1827</v>
+      </c>
+      <c r="F813" s="1" t="s">
         <v>1828</v>
-      </c>
-      <c r="F813" s="1" t="s">
-        <v>1829</v>
       </c>
       <c r="H813" s="2" t="s">
         <v>375</v>
@@ -34716,7 +34724,7 @@
         <v>17</v>
       </c>
       <c r="E814" s="1" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="F814" s="1" t="s">
         <v>167</v>
@@ -34740,7 +34748,7 @@
         <v>18</v>
       </c>
       <c r="E815" s="1" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="F815" s="1" t="s">
         <v>189</v>
@@ -34771,7 +34779,7 @@
         <v>19</v>
       </c>
       <c r="E816" s="1" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="F816" s="1" t="s">
         <v>89</v>
@@ -34795,7 +34803,7 @@
         <v>20</v>
       </c>
       <c r="E817" s="1" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="F817" s="1" t="s">
         <v>213</v>
@@ -34843,7 +34851,7 @@
         <v>22</v>
       </c>
       <c r="E819" s="1" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="F819" s="1" t="s">
         <v>306</v>
@@ -34867,7 +34875,7 @@
         <v>23</v>
       </c>
       <c r="E820" s="1" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="F820" s="1" t="s">
         <v>167</v>
@@ -34893,7 +34901,7 @@
         <v>24</v>
       </c>
       <c r="E821" s="1" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="F821" s="1" t="s">
         <v>192</v>
@@ -34929,16 +34937,16 @@
         <v>2014</v>
       </c>
       <c r="J822" s="38" t="s">
+        <v>1835</v>
+      </c>
+      <c r="K822" s="19" t="s">
         <v>1836</v>
       </c>
-      <c r="K822" s="19" t="s">
+      <c r="L822" s="28" t="s">
         <v>1837</v>
       </c>
-      <c r="L822" s="28" t="s">
+      <c r="M822" s="55" t="s">
         <v>1838</v>
-      </c>
-      <c r="M822" s="55" t="s">
-        <v>1839</v>
       </c>
       <c r="N822" s="1">
         <v>1200</v>
@@ -34947,7 +34955,7 @@
         <v>373</v>
       </c>
       <c r="P822" s="28" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="Q822" s="28" t="s">
         <v>375</v>
@@ -34974,7 +34982,7 @@
         <v>26</v>
       </c>
       <c r="E823" s="1" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="F823" s="1" t="s">
         <v>339</v>
@@ -34998,7 +35006,7 @@
         <v>27</v>
       </c>
       <c r="E824" s="1" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="F824" s="1" t="s">
         <v>261</v>
@@ -35022,7 +35030,7 @@
         <v>28</v>
       </c>
       <c r="E825" s="1" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="F825" s="1" t="s">
         <v>209</v>
@@ -35046,7 +35054,7 @@
         <v>29</v>
       </c>
       <c r="E826" s="1" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="F826" s="1" t="s">
         <v>167</v>
@@ -35094,7 +35102,7 @@
         <v>31</v>
       </c>
       <c r="E828" s="1" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="F828" s="1" t="s">
         <v>237</v>
@@ -35118,7 +35126,7 @@
         <v>32</v>
       </c>
       <c r="E829" s="1" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="F829" s="1" t="s">
         <v>24</v>
@@ -35168,7 +35176,7 @@
         <v>34</v>
       </c>
       <c r="E831" s="1" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="F831" s="1" t="s">
         <v>87</v>
@@ -35216,7 +35224,7 @@
         <v>36</v>
       </c>
       <c r="E833" s="1" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="F833" s="1" t="s">
         <v>271</v>
@@ -35240,7 +35248,7 @@
         <v>1</v>
       </c>
       <c r="E834" s="1" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="F834" s="1" t="s">
         <v>139</v>
@@ -35266,7 +35274,7 @@
         <v>2</v>
       </c>
       <c r="E835" s="1" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="F835" s="1" t="s">
         <v>234</v>
@@ -35295,7 +35303,7 @@
         <v>806</v>
       </c>
       <c r="F836" s="1" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="H836" s="2" t="s">
         <v>375</v>
@@ -35318,7 +35326,7 @@
         <v>4</v>
       </c>
       <c r="E837" s="1" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="F837" s="1" t="s">
         <v>148</v>
@@ -35368,7 +35376,7 @@
         <v>6</v>
       </c>
       <c r="E839" s="1" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="F839" s="1" t="s">
         <v>87</v>
@@ -35383,7 +35391,7 @@
         <v>390</v>
       </c>
       <c r="L839" s="28" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="M839" s="47"/>
       <c r="N839" s="1">
@@ -35393,7 +35401,7 @@
         <v>373</v>
       </c>
       <c r="P839" s="28" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="Q839" s="28" t="s">
         <v>375</v>
@@ -35405,10 +35413,10 @@
         <v>376</v>
       </c>
       <c r="U839" s="19" t="s">
+        <v>1853</v>
+      </c>
+      <c r="V839" s="49" t="s">
         <v>1854</v>
-      </c>
-      <c r="V839" s="49" t="s">
-        <v>1855</v>
       </c>
     </row>
     <row r="840" spans="1:22" x14ac:dyDescent="0.2">
@@ -35425,7 +35433,7 @@
         <v>7</v>
       </c>
       <c r="E840" s="1" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="F840" s="1" t="s">
         <v>24</v>
@@ -35438,7 +35446,7 @@
       </c>
       <c r="J840" s="30"/>
       <c r="L840" s="28" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="M840" s="47"/>
       <c r="Q840" s="28" t="s">
@@ -35451,10 +35459,10 @@
         <v>376</v>
       </c>
       <c r="U840" s="19" t="s">
+        <v>1857</v>
+      </c>
+      <c r="V840" s="49" t="s">
         <v>1858</v>
-      </c>
-      <c r="V840" s="49" t="s">
-        <v>1859</v>
       </c>
     </row>
     <row r="841" spans="1:22" x14ac:dyDescent="0.2">
@@ -35471,7 +35479,7 @@
         <v>8</v>
       </c>
       <c r="E841" s="1" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="F841" s="1" t="s">
         <v>87</v>
@@ -35495,7 +35503,7 @@
         <v>9</v>
       </c>
       <c r="E842" s="1" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="F842" s="1" t="s">
         <v>123</v>
@@ -35545,7 +35553,7 @@
         <v>11</v>
       </c>
       <c r="E844" s="1" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="F844" s="1" t="s">
         <v>356</v>
@@ -35569,7 +35577,7 @@
         <v>12</v>
       </c>
       <c r="E845" s="1" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="F845" s="1" t="s">
         <v>741</v>
@@ -35596,7 +35604,7 @@
         <v>939</v>
       </c>
       <c r="F846" s="1" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="H846" s="2" t="s">
         <v>375</v>
@@ -35619,7 +35627,7 @@
         <v>14</v>
       </c>
       <c r="E847" s="1" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="F847" s="1" t="s">
         <v>141</v>
@@ -35645,10 +35653,10 @@
         <v>15</v>
       </c>
       <c r="E848" s="1" t="s">
+        <v>1865</v>
+      </c>
+      <c r="F848" s="1" t="s">
         <v>1866</v>
-      </c>
-      <c r="F848" s="1" t="s">
-        <v>1867</v>
       </c>
       <c r="H848" s="2"/>
       <c r="J848" s="30"/>
@@ -35669,10 +35677,10 @@
         <v>1</v>
       </c>
       <c r="E849" s="1" t="s">
+        <v>1867</v>
+      </c>
+      <c r="F849" s="1" t="s">
         <v>1868</v>
-      </c>
-      <c r="F849" s="1" t="s">
-        <v>1869</v>
       </c>
       <c r="H849" s="26" t="s">
         <v>376</v>
@@ -35684,7 +35692,7 @@
         <v>634</v>
       </c>
       <c r="L849" s="28" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="M849" s="47"/>
       <c r="N849" s="1">
@@ -35694,7 +35702,7 @@
         <v>636</v>
       </c>
       <c r="P849" s="28" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="Q849" s="28" t="s">
         <v>375</v>
@@ -35706,10 +35714,10 @@
         <v>375</v>
       </c>
       <c r="U849" s="19" t="s">
+        <v>1870</v>
+      </c>
+      <c r="V849" s="49" t="s">
         <v>1871</v>
-      </c>
-      <c r="V849" s="49" t="s">
-        <v>1872</v>
       </c>
     </row>
     <row r="850" spans="1:22" x14ac:dyDescent="0.2">
@@ -35726,10 +35734,10 @@
         <v>2</v>
       </c>
       <c r="E850" s="1" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="F850" s="1" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="H850" s="2"/>
       <c r="J850" s="30"/>
@@ -35750,7 +35758,7 @@
         <v>3</v>
       </c>
       <c r="E851" s="1" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="F851" s="1" t="s">
         <v>230</v>
@@ -35774,7 +35782,7 @@
         <v>4</v>
       </c>
       <c r="E852" s="1" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="F852" s="1" t="s">
         <v>146</v>
@@ -35798,7 +35806,7 @@
         <v>5</v>
       </c>
       <c r="E853" s="1" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="F853" s="1" t="s">
         <v>141</v>
@@ -35824,7 +35832,7 @@
         <v>6</v>
       </c>
       <c r="E854" s="1" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="F854" s="1" t="s">
         <v>261</v>
@@ -35837,7 +35845,7 @@
       </c>
       <c r="J854" s="30"/>
       <c r="L854" s="28" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="M854" s="47"/>
       <c r="Q854" s="28" t="s">
@@ -35850,10 +35858,10 @@
         <v>376</v>
       </c>
       <c r="U854" s="19" t="s">
+        <v>1877</v>
+      </c>
+      <c r="V854" s="49" t="s">
         <v>1878</v>
-      </c>
-      <c r="V854" s="49" t="s">
-        <v>1879</v>
       </c>
     </row>
     <row r="855" spans="1:22" x14ac:dyDescent="0.2">
@@ -35870,7 +35878,7 @@
         <v>7</v>
       </c>
       <c r="E855" s="1" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="F855" s="1" t="s">
         <v>148</v>
@@ -35894,10 +35902,10 @@
         <v>8</v>
       </c>
       <c r="E856" s="1" t="s">
+        <v>1880</v>
+      </c>
+      <c r="F856" s="1" t="s">
         <v>1881</v>
-      </c>
-      <c r="F856" s="1" t="s">
-        <v>1882</v>
       </c>
       <c r="H856" s="2" t="s">
         <v>375</v>
@@ -35920,7 +35928,7 @@
         <v>9</v>
       </c>
       <c r="E857" s="1" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="F857" s="1" t="s">
         <v>282</v>
@@ -35944,7 +35952,7 @@
         <v>10</v>
       </c>
       <c r="E858" s="28" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="F858" s="1" t="s">
         <v>62</v>
@@ -35956,20 +35964,20 @@
         <v>2014</v>
       </c>
       <c r="J858" s="38" t="s">
+        <v>1884</v>
+      </c>
+      <c r="L858" s="28" t="s">
         <v>1885</v>
-      </c>
-      <c r="L858" s="28" t="s">
-        <v>1886</v>
       </c>
       <c r="M858" s="47"/>
       <c r="N858" s="1">
         <v>3500</v>
       </c>
       <c r="O858" s="28" t="s">
+        <v>1886</v>
+      </c>
+      <c r="P858" s="28" t="s">
         <v>1887</v>
-      </c>
-      <c r="P858" s="28" t="s">
-        <v>1888</v>
       </c>
       <c r="Q858" s="28" t="s">
         <v>375</v>
@@ -35981,10 +35989,10 @@
         <v>376</v>
       </c>
       <c r="U858" s="19" t="s">
+        <v>1888</v>
+      </c>
+      <c r="V858" s="49" t="s">
         <v>1889</v>
-      </c>
-      <c r="V858" s="49" t="s">
-        <v>1890</v>
       </c>
     </row>
     <row r="859" spans="1:22" x14ac:dyDescent="0.2">
@@ -36001,10 +36009,10 @@
         <v>11</v>
       </c>
       <c r="E859" s="1" t="s">
+        <v>1890</v>
+      </c>
+      <c r="F859" s="1" t="s">
         <v>1891</v>
-      </c>
-      <c r="F859" s="1" t="s">
-        <v>1892</v>
       </c>
       <c r="H859" s="2"/>
       <c r="J859" s="30"/>
@@ -36025,7 +36033,7 @@
         <v>12</v>
       </c>
       <c r="E860" s="1" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="F860" s="1" t="s">
         <v>327</v>
@@ -36035,10 +36043,10 @@
         <v>2014</v>
       </c>
       <c r="J860" s="24" t="s">
+        <v>1893</v>
+      </c>
+      <c r="L860" s="1" t="s">
         <v>1894</v>
-      </c>
-      <c r="L860" s="1" t="s">
-        <v>1895</v>
       </c>
       <c r="N860" s="1">
         <v>3943</v>
@@ -36056,10 +36064,10 @@
         <v>375</v>
       </c>
       <c r="U860" s="19" t="s">
+        <v>1895</v>
+      </c>
+      <c r="V860" s="24" t="s">
         <v>1896</v>
-      </c>
-      <c r="V860" s="24" t="s">
-        <v>1897</v>
       </c>
     </row>
     <row r="861" spans="1:22" x14ac:dyDescent="0.2">
@@ -36076,7 +36084,7 @@
         <v>13</v>
       </c>
       <c r="E861" s="1" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="F861" s="1" t="s">
         <v>647</v>
@@ -36100,7 +36108,7 @@
         <v>14</v>
       </c>
       <c r="E862" s="1" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="F862" s="1" t="s">
         <v>167</v>
@@ -36126,7 +36134,7 @@
         <v>15</v>
       </c>
       <c r="E863" s="1" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="F863" s="1" t="s">
         <v>81</v>
@@ -36152,10 +36160,10 @@
         <v>376</v>
       </c>
       <c r="U863" s="19" t="s">
+        <v>1900</v>
+      </c>
+      <c r="V863" s="49" t="s">
         <v>1901</v>
-      </c>
-      <c r="V863" s="49" t="s">
-        <v>1902</v>
       </c>
     </row>
     <row r="864" spans="1:22" x14ac:dyDescent="0.2">
@@ -36187,7 +36195,7 @@
         <v>1019</v>
       </c>
       <c r="L864" s="28" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="M864" s="47"/>
       <c r="P864" s="28" t="s">
@@ -36203,10 +36211,10 @@
         <v>375</v>
       </c>
       <c r="U864" s="19" t="s">
+        <v>1902</v>
+      </c>
+      <c r="V864" s="49" t="s">
         <v>1903</v>
-      </c>
-      <c r="V864" s="49" t="s">
-        <v>1904</v>
       </c>
     </row>
     <row r="865" spans="1:22" x14ac:dyDescent="0.2">
@@ -36247,7 +36255,7 @@
         <v>18</v>
       </c>
       <c r="E866" s="1" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="F866" s="1" t="s">
         <v>356</v>
@@ -36273,7 +36281,7 @@
         <v>19</v>
       </c>
       <c r="E867" s="1" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="F867" s="1" t="s">
         <v>24</v>
@@ -36321,10 +36329,10 @@
         <v>2</v>
       </c>
       <c r="E869" s="1" t="s">
+        <v>1905</v>
+      </c>
+      <c r="F869" s="1" t="s">
         <v>1906</v>
-      </c>
-      <c r="F869" s="1" t="s">
-        <v>1907</v>
       </c>
       <c r="H869" s="2"/>
       <c r="J869" s="30"/>
@@ -36345,7 +36353,7 @@
         <v>3</v>
       </c>
       <c r="E870" s="1" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="F870" s="1" t="s">
         <v>148</v>
@@ -36357,14 +36365,14 @@
         <v>2014</v>
       </c>
       <c r="J870" s="38" t="s">
+        <v>1907</v>
+      </c>
+      <c r="L870" s="28" t="s">
         <v>1908</v>
-      </c>
-      <c r="L870" s="28" t="s">
-        <v>1909</v>
       </c>
       <c r="M870" s="47"/>
       <c r="O870" s="28" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="Q870" s="28" t="s">
         <v>376</v>
@@ -36391,10 +36399,10 @@
         <v>4</v>
       </c>
       <c r="E871" s="1" t="s">
+        <v>1910</v>
+      </c>
+      <c r="F871" s="1" t="s">
         <v>1911</v>
-      </c>
-      <c r="F871" s="1" t="s">
-        <v>1912</v>
       </c>
       <c r="H871" s="2"/>
       <c r="J871" s="30"/>
@@ -36415,10 +36423,10 @@
         <v>5</v>
       </c>
       <c r="E872" s="1" t="s">
+        <v>1912</v>
+      </c>
+      <c r="F872" s="1" t="s">
         <v>1913</v>
-      </c>
-      <c r="F872" s="1" t="s">
-        <v>1914</v>
       </c>
       <c r="H872" s="2"/>
       <c r="J872" s="30"/>
@@ -36439,7 +36447,7 @@
         <v>6</v>
       </c>
       <c r="E873" s="1" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="F873" s="1" t="s">
         <v>207</v>
@@ -36463,10 +36471,10 @@
         <v>7</v>
       </c>
       <c r="E874" s="1" t="s">
+        <v>1915</v>
+      </c>
+      <c r="F874" s="1" t="s">
         <v>1916</v>
-      </c>
-      <c r="F874" s="1" t="s">
-        <v>1917</v>
       </c>
       <c r="H874" s="2"/>
       <c r="J874" s="30"/>
@@ -36487,7 +36495,7 @@
         <v>8</v>
       </c>
       <c r="E875" s="1" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="F875" s="1" t="s">
         <v>234</v>
@@ -36511,7 +36519,7 @@
         <v>9</v>
       </c>
       <c r="E876" s="1" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="F876" s="1" t="s">
         <v>213</v>
@@ -36523,14 +36531,14 @@
         <v>2014</v>
       </c>
       <c r="J876" s="38" t="s">
+        <v>1918</v>
+      </c>
+      <c r="L876" s="28" t="s">
         <v>1919</v>
-      </c>
-      <c r="L876" s="28" t="s">
-        <v>1920</v>
       </c>
       <c r="M876" s="47"/>
       <c r="O876" s="28" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="Q876" s="28" t="s">
         <v>376</v>
@@ -36542,10 +36550,10 @@
         <v>376</v>
       </c>
       <c r="U876" s="19" t="s">
+        <v>1921</v>
+      </c>
+      <c r="V876" s="49" t="s">
         <v>1922</v>
-      </c>
-      <c r="V876" s="49" t="s">
-        <v>1923</v>
       </c>
     </row>
     <row r="877" spans="1:22" x14ac:dyDescent="0.2">
@@ -36562,10 +36570,10 @@
         <v>10</v>
       </c>
       <c r="E877" s="1" t="s">
+        <v>1923</v>
+      </c>
+      <c r="F877" s="1" t="s">
         <v>1924</v>
-      </c>
-      <c r="F877" s="1" t="s">
-        <v>1925</v>
       </c>
       <c r="H877" s="2"/>
       <c r="J877" s="30"/>
@@ -36586,10 +36594,10 @@
         <v>11</v>
       </c>
       <c r="E878" s="1" t="s">
+        <v>1925</v>
+      </c>
+      <c r="F878" s="1" t="s">
         <v>1926</v>
-      </c>
-      <c r="F878" s="1" t="s">
-        <v>1927</v>
       </c>
       <c r="H878" s="2"/>
       <c r="J878" s="30"/>
@@ -36634,7 +36642,7 @@
         <v>13</v>
       </c>
       <c r="E880" s="1" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="F880" s="1" t="s">
         <v>148</v>
@@ -36682,10 +36690,10 @@
         <v>15</v>
       </c>
       <c r="E882" s="1" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="F882" s="1" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="H882" s="2"/>
       <c r="J882" s="30"/>
@@ -36709,7 +36717,7 @@
         <v>693</v>
       </c>
       <c r="F883" s="1" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="H883" s="2"/>
       <c r="J883" s="30"/>
@@ -36730,10 +36738,10 @@
         <v>17</v>
       </c>
       <c r="E884" s="1" t="s">
+        <v>1930</v>
+      </c>
+      <c r="F884" s="1" t="s">
         <v>1931</v>
-      </c>
-      <c r="F884" s="1" t="s">
-        <v>1932</v>
       </c>
       <c r="H884" s="2"/>
       <c r="J884" s="30"/>
@@ -36754,7 +36762,7 @@
         <v>18</v>
       </c>
       <c r="E885" s="1" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="F885" s="1" t="s">
         <v>148</v>
@@ -36802,10 +36810,10 @@
         <v>20</v>
       </c>
       <c r="E887" s="1" t="s">
+        <v>1933</v>
+      </c>
+      <c r="F887" s="1" t="s">
         <v>1934</v>
-      </c>
-      <c r="F887" s="1" t="s">
-        <v>1935</v>
       </c>
       <c r="H887" s="2"/>
       <c r="J887" s="30"/>
@@ -36826,7 +36834,7 @@
         <v>21</v>
       </c>
       <c r="E888" s="1" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="F888" s="1" t="s">
         <v>123</v>
@@ -36850,7 +36858,7 @@
         <v>22</v>
       </c>
       <c r="E889" s="1" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="F889" s="1" t="s">
         <v>197</v>
@@ -36874,10 +36882,10 @@
         <v>23</v>
       </c>
       <c r="E890" s="1" t="s">
+        <v>1937</v>
+      </c>
+      <c r="F890" s="1" t="s">
         <v>1938</v>
-      </c>
-      <c r="F890" s="1" t="s">
-        <v>1939</v>
       </c>
       <c r="H890" s="2"/>
       <c r="J890" s="30"/>
@@ -36898,10 +36906,10 @@
         <v>24</v>
       </c>
       <c r="E891" s="1" t="s">
+        <v>1939</v>
+      </c>
+      <c r="F891" s="1" t="s">
         <v>1940</v>
-      </c>
-      <c r="F891" s="1" t="s">
-        <v>1941</v>
       </c>
       <c r="H891" s="2"/>
       <c r="J891" s="30"/>
@@ -36922,7 +36930,7 @@
         <v>25</v>
       </c>
       <c r="E892" s="1" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="F892" s="1" t="s">
         <v>339</v>
@@ -36946,7 +36954,7 @@
         <v>26</v>
       </c>
       <c r="E893" s="1" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="F893" s="1" t="s">
         <v>356</v>
@@ -36970,7 +36978,7 @@
         <v>27</v>
       </c>
       <c r="E894" s="1" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="F894" s="1" t="s">
         <v>325</v>
@@ -36994,7 +37002,7 @@
         <v>28</v>
       </c>
       <c r="E895" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="F895" s="1" t="s">
         <v>327</v>
@@ -37018,7 +37026,7 @@
         <v>29</v>
       </c>
       <c r="E896" s="1" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="F896" s="1" t="s">
         <v>135</v>
@@ -37042,7 +37050,7 @@
         <v>30</v>
       </c>
       <c r="E897" s="1" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="F897" s="1" t="s">
         <v>325</v>
@@ -37064,13 +37072,13 @@
       </c>
       <c r="D898" s="65"/>
       <c r="E898" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="F898" t="s">
         <v>133</v>
       </c>
       <c r="U898" s="63" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="899" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
@@ -37085,13 +37093,13 @@
       </c>
       <c r="D899" s="65"/>
       <c r="E899" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="F899" t="s">
         <v>143</v>
       </c>
       <c r="K899" s="63" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="900" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
@@ -37124,13 +37132,13 @@
       </c>
       <c r="D901" s="65"/>
       <c r="E901" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="F901" t="s">
         <v>818</v>
       </c>
       <c r="U901" s="63" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="902" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
@@ -37145,13 +37153,13 @@
       </c>
       <c r="D902" s="65"/>
       <c r="E902" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="F902" t="s">
         <v>133</v>
       </c>
       <c r="K902" s="63" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="903" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
@@ -37166,13 +37174,13 @@
       </c>
       <c r="D903" s="65"/>
       <c r="E903" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="F903" t="s">
         <v>261</v>
       </c>
       <c r="K903" s="63" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="904" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
@@ -37187,13 +37195,13 @@
       </c>
       <c r="D904" s="65"/>
       <c r="E904" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="F904" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="U904" s="63" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="905" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
@@ -37226,7 +37234,7 @@
       </c>
       <c r="D906" s="65"/>
       <c r="E906" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="F906" t="s">
         <v>93</v>
@@ -37244,7 +37252,7 @@
       </c>
       <c r="D907" s="65"/>
       <c r="E907" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="F907" t="s">
         <v>873</v>
@@ -37262,13 +37270,13 @@
       </c>
       <c r="D908" s="65"/>
       <c r="E908" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="F908" t="s">
         <v>24</v>
       </c>
       <c r="K908" s="63" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="909" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
@@ -37283,13 +37291,13 @@
       </c>
       <c r="D909" s="65"/>
       <c r="E909" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="F909" t="s">
         <v>189</v>
       </c>
       <c r="K909" s="63" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="910" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
@@ -37304,13 +37312,13 @@
       </c>
       <c r="D910" s="65"/>
       <c r="E910" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="F910" t="s">
         <v>232</v>
       </c>
       <c r="U910" s="63" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="911" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
@@ -37325,7 +37333,7 @@
       </c>
       <c r="D911" s="65"/>
       <c r="E911" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="F911" t="s">
         <v>232</v>
@@ -37343,10 +37351,10 @@
       </c>
       <c r="D912" s="65"/>
       <c r="E912" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="F912" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="913" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -37361,13 +37369,13 @@
       </c>
       <c r="D913" s="65"/>
       <c r="E913" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="F913" t="s">
         <v>24</v>
       </c>
       <c r="K913" s="63" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="914" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -37382,13 +37390,13 @@
       </c>
       <c r="D914" s="65"/>
       <c r="E914" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="F914" t="s">
         <v>647</v>
       </c>
       <c r="K914" s="63" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="915" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -37403,13 +37411,13 @@
       </c>
       <c r="D915" s="65"/>
       <c r="E915" t="s">
+        <v>1968</v>
+      </c>
+      <c r="F915" t="s">
         <v>1969</v>
       </c>
-      <c r="F915" t="s">
+      <c r="K915" s="63" t="s">
         <v>1970</v>
-      </c>
-      <c r="K915" s="63" t="s">
-        <v>1971</v>
       </c>
     </row>
     <row r="916" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -37442,16 +37450,16 @@
       </c>
       <c r="D917" s="65"/>
       <c r="E917" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="F917" t="s">
         <v>89</v>
       </c>
       <c r="K917" s="63" t="s">
+        <v>1972</v>
+      </c>
+      <c r="U917" s="63" t="s">
         <v>1973</v>
-      </c>
-      <c r="U917" s="63" t="s">
-        <v>1974</v>
       </c>
     </row>
     <row r="918" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -37466,7 +37474,7 @@
       </c>
       <c r="D918" s="65"/>
       <c r="E918" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="F918" t="s">
         <v>45</v>
@@ -37484,13 +37492,13 @@
       </c>
       <c r="D919" s="65"/>
       <c r="E919" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="F919" t="s">
         <v>818</v>
       </c>
       <c r="U919" s="63" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="920" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -37505,13 +37513,13 @@
       </c>
       <c r="D920" s="65"/>
       <c r="E920" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="F920" t="s">
         <v>167</v>
       </c>
       <c r="U920" s="63" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="921" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -37526,13 +37534,13 @@
       </c>
       <c r="D921" s="65"/>
       <c r="E921" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="F921" t="s">
         <v>167</v>
       </c>
       <c r="K921" s="63" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="922" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -37547,7 +37555,7 @@
       </c>
       <c r="D922" s="65"/>
       <c r="E922" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="F922" t="s">
         <v>24</v>
@@ -37565,13 +37573,13 @@
       </c>
       <c r="D923" s="65"/>
       <c r="E923" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="F923" t="s">
         <v>139</v>
       </c>
       <c r="K923" s="63" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="924" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -37592,7 +37600,7 @@
         <v>123</v>
       </c>
       <c r="K924" s="63" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="925" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -37607,13 +37615,13 @@
       </c>
       <c r="D925" s="65"/>
       <c r="E925" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="F925" t="s">
         <v>232</v>
       </c>
       <c r="U925" s="63" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="926" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -37628,10 +37636,10 @@
       </c>
       <c r="D926" s="65"/>
       <c r="E926" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="F926" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="927" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -37646,7 +37654,7 @@
       </c>
       <c r="D927" s="65"/>
       <c r="E927" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="F927" t="s">
         <v>87</v>
@@ -37664,13 +37672,13 @@
       </c>
       <c r="D928" s="65"/>
       <c r="E928" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="F928" t="s">
         <v>24</v>
       </c>
       <c r="K928" s="63" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="929" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -37685,10 +37693,10 @@
       </c>
       <c r="D929" s="65"/>
       <c r="E929" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="F929" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="930" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -37703,13 +37711,13 @@
       </c>
       <c r="D930" s="65"/>
       <c r="E930" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="F930" t="s">
         <v>152</v>
       </c>
       <c r="K930" s="63" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="931" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -37724,13 +37732,13 @@
       </c>
       <c r="D931" s="65"/>
       <c r="E931" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="F931" t="s">
         <v>45</v>
       </c>
       <c r="U931" s="63" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="932" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -37745,13 +37753,13 @@
       </c>
       <c r="D932" s="65"/>
       <c r="E932" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="F932" t="s">
         <v>261</v>
       </c>
       <c r="K932" s="63" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="933" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -37802,7 +37810,7 @@
       </c>
       <c r="D935" s="65"/>
       <c r="E935" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="F935" t="s">
         <v>849</v>
@@ -37820,10 +37828,10 @@
       </c>
       <c r="D936" s="65"/>
       <c r="E936" t="s">
+        <v>1994</v>
+      </c>
+      <c r="F936" t="s">
         <v>1995</v>
-      </c>
-      <c r="F936" t="s">
-        <v>1996</v>
       </c>
     </row>
     <row r="937" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -37838,7 +37846,7 @@
       </c>
       <c r="D937" s="65"/>
       <c r="E937" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="F937" t="s">
         <v>261</v>
@@ -37856,7 +37864,7 @@
       </c>
       <c r="D938" s="65"/>
       <c r="E938" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="F938" t="s">
         <v>152</v>
@@ -37874,7 +37882,7 @@
       </c>
       <c r="D939" s="65"/>
       <c r="E939" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="F939" t="s">
         <v>849</v>
@@ -37892,7 +37900,7 @@
       </c>
       <c r="D940" s="65"/>
       <c r="E940" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="F940" t="s">
         <v>143</v>
@@ -37910,7 +37918,7 @@
       </c>
       <c r="D941" s="65"/>
       <c r="E941" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="F941" t="s">
         <v>232</v>
@@ -37928,7 +37936,7 @@
       </c>
       <c r="D942" s="65"/>
       <c r="E942" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="F942" t="s">
         <v>167</v>
@@ -37946,7 +37954,7 @@
       </c>
       <c r="D943" s="65"/>
       <c r="E943" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="F943" t="s">
         <v>167</v>
@@ -37964,7 +37972,7 @@
       </c>
       <c r="D944" s="65"/>
       <c r="E944" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="F944" t="s">
         <v>234</v>
@@ -37982,10 +37990,10 @@
       </c>
       <c r="D945" s="65"/>
       <c r="E945" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="F945" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="946" spans="1:11" customFormat="1" x14ac:dyDescent="0.2">
@@ -38000,7 +38008,7 @@
       </c>
       <c r="D946" s="65"/>
       <c r="E946" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="F946" t="s">
         <v>24</v>
@@ -38018,7 +38026,7 @@
       </c>
       <c r="D947" s="65"/>
       <c r="E947" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="F947" t="s">
         <v>133</v>
@@ -38036,7 +38044,7 @@
       </c>
       <c r="D948" s="65"/>
       <c r="E948" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="F948" t="s">
         <v>103</v>
@@ -38126,7 +38134,7 @@
       </c>
       <c r="D953" s="65"/>
       <c r="E953" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="F953" t="s">
         <v>41</v>
@@ -38147,10 +38155,10 @@
         <v>871</v>
       </c>
       <c r="F954" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="K954" s="63" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="955" spans="1:11" customFormat="1" x14ac:dyDescent="0.2">
@@ -38165,7 +38173,7 @@
       </c>
       <c r="D955" s="65"/>
       <c r="E955" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="F955" t="s">
         <v>89</v>
@@ -38183,7 +38191,7 @@
       </c>
       <c r="D956" s="65"/>
       <c r="E956" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="F956" t="s">
         <v>146</v>
@@ -38201,7 +38209,7 @@
       </c>
       <c r="D957" s="65"/>
       <c r="E957" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F957" t="s">
         <v>103</v>
@@ -38219,7 +38227,7 @@
       </c>
       <c r="D958" s="65"/>
       <c r="E958" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="F958" t="s">
         <v>197</v>
@@ -38237,7 +38245,7 @@
       </c>
       <c r="D959" s="65"/>
       <c r="E959" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F959" t="s">
         <v>849</v>
@@ -38255,7 +38263,7 @@
       </c>
       <c r="D960" s="65"/>
       <c r="E960" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="F960" t="s">
         <v>158</v>
@@ -38273,7 +38281,7 @@
       </c>
       <c r="D961" s="65"/>
       <c r="E961" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="F961" t="s">
         <v>261</v>
@@ -38291,7 +38299,7 @@
       </c>
       <c r="D962" s="65"/>
       <c r="E962" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="F962" t="s">
         <v>247</v>
@@ -38327,7 +38335,7 @@
       </c>
       <c r="D964" s="65"/>
       <c r="E964" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="F964" t="s">
         <v>87</v>
@@ -38345,7 +38353,7 @@
       </c>
       <c r="D965" s="65"/>
       <c r="E965" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="F965" t="s">
         <v>647</v>
@@ -38363,7 +38371,7 @@
       </c>
       <c r="D966" s="65"/>
       <c r="E966" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="F966" t="s">
         <v>146</v>
@@ -38381,7 +38389,7 @@
       </c>
       <c r="D967" s="65"/>
       <c r="E967" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="F967" t="s">
         <v>139</v>
@@ -38399,7 +38407,7 @@
       </c>
       <c r="D968" s="65"/>
       <c r="E968" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="F968" t="s">
         <v>154</v>
@@ -38417,7 +38425,7 @@
       </c>
       <c r="D969" s="65"/>
       <c r="E969" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="F969" t="s">
         <v>263</v>
@@ -38453,10 +38461,10 @@
       </c>
       <c r="D971" s="65"/>
       <c r="E971" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="F971" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="972" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -38471,7 +38479,7 @@
       </c>
       <c r="D972" s="65"/>
       <c r="E972" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="F972" t="s">
         <v>167</v>
@@ -38489,7 +38497,7 @@
       </c>
       <c r="D973" s="65"/>
       <c r="E973" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="F973" t="s">
         <v>146</v>
@@ -38507,13 +38515,13 @@
       </c>
       <c r="D974" s="65"/>
       <c r="E974" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="F974" t="s">
         <v>24</v>
       </c>
       <c r="U974" s="63" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="975" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -38528,13 +38536,13 @@
       </c>
       <c r="D975" s="65"/>
       <c r="E975" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="F975" t="s">
         <v>167</v>
       </c>
       <c r="U975" s="63" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="976" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -38549,13 +38557,13 @@
       </c>
       <c r="D976" s="65"/>
       <c r="E976" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="F976" t="s">
         <v>247</v>
       </c>
       <c r="U976" s="63" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="977" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -38570,7 +38578,7 @@
       </c>
       <c r="D977" s="65"/>
       <c r="E977" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="F977" t="s">
         <v>167</v>
@@ -38588,7 +38596,7 @@
       </c>
       <c r="D978" s="65"/>
       <c r="E978" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="F978" t="s">
         <v>24</v>
@@ -38606,7 +38614,7 @@
       </c>
       <c r="D979" s="65"/>
       <c r="E979" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="F979" t="s">
         <v>334</v>
@@ -38624,13 +38632,13 @@
       </c>
       <c r="D980" s="65"/>
       <c r="E980" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="F980" t="s">
         <v>327</v>
       </c>
       <c r="U980" s="63" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="981" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -38645,7 +38653,7 @@
       </c>
       <c r="D981" s="65"/>
       <c r="E981" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="F981" t="s">
         <v>133</v>
@@ -38681,13 +38689,13 @@
       </c>
       <c r="D983" s="65"/>
       <c r="E983" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="F983" t="s">
         <v>135</v>
       </c>
       <c r="U983" s="63" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="984" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -38702,13 +38710,13 @@
       </c>
       <c r="D984" s="65"/>
       <c r="E984" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="F984" t="s">
         <v>89</v>
       </c>
       <c r="U984" s="63" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="985" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -38723,13 +38731,13 @@
       </c>
       <c r="D985" s="65"/>
       <c r="E985" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="F985" t="s">
         <v>24</v>
       </c>
       <c r="K985" s="63" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="986" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -38744,7 +38752,7 @@
       </c>
       <c r="D986" s="65"/>
       <c r="E986" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="F986" t="s">
         <v>261</v>
@@ -38762,13 +38770,13 @@
       </c>
       <c r="D987" s="65"/>
       <c r="E987" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="F987" t="s">
         <v>263</v>
       </c>
       <c r="U987" s="63" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="988" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -38783,13 +38791,13 @@
       </c>
       <c r="D988" s="65"/>
       <c r="E988" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="F988" t="s">
         <v>135</v>
       </c>
       <c r="K988" s="63" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="989" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -38804,13 +38812,13 @@
       </c>
       <c r="D989" s="65"/>
       <c r="E989" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="F989" t="s">
         <v>141</v>
       </c>
       <c r="U989" s="63" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="990" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -38825,13 +38833,13 @@
       </c>
       <c r="D990" s="65"/>
       <c r="E990" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="F990" t="s">
         <v>247</v>
       </c>
       <c r="U990" s="63" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="991" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -38846,7 +38854,7 @@
       </c>
       <c r="D991" s="65"/>
       <c r="E991" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="F991" t="s">
         <v>213</v>
@@ -38885,7 +38893,7 @@
         <v>762</v>
       </c>
       <c r="F993" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="994" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
@@ -38900,7 +38908,7 @@
       </c>
       <c r="D994" s="65"/>
       <c r="E994" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="F994" t="s">
         <v>167</v>
@@ -38918,7 +38926,7 @@
       </c>
       <c r="D995" s="65"/>
       <c r="E995" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="F995" t="s">
         <v>343</v>
@@ -38954,7 +38962,7 @@
       </c>
       <c r="D997" s="65"/>
       <c r="E997" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="F997" t="s">
         <v>167</v>
@@ -38990,10 +38998,10 @@
       </c>
       <c r="D999" s="65"/>
       <c r="E999" t="s">
+        <v>2056</v>
+      </c>
+      <c r="F999" t="s">
         <v>2057</v>
-      </c>
-      <c r="F999" t="s">
-        <v>2058</v>
       </c>
     </row>
     <row r="1000" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
@@ -39026,7 +39034,7 @@
       </c>
       <c r="D1001" s="65"/>
       <c r="E1001" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="F1001" t="s">
         <v>167</v>
@@ -39044,7 +39052,7 @@
       </c>
       <c r="D1002" s="65"/>
       <c r="E1002" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="F1002" t="s">
         <v>189</v>
@@ -39062,7 +39070,7 @@
       </c>
       <c r="D1003" s="65"/>
       <c r="E1003" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="F1003" t="s">
         <v>123</v>
@@ -39080,7 +39088,7 @@
       </c>
       <c r="D1004" s="65"/>
       <c r="E1004" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="F1004" t="s">
         <v>146</v>
@@ -39098,10 +39106,10 @@
       </c>
       <c r="D1005" s="65"/>
       <c r="E1005" t="s">
+        <v>2061</v>
+      </c>
+      <c r="F1005" t="s">
         <v>2062</v>
-      </c>
-      <c r="F1005" t="s">
-        <v>2063</v>
       </c>
     </row>
     <row r="1006" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
@@ -39134,7 +39142,7 @@
       </c>
       <c r="D1007" s="65"/>
       <c r="E1007" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="F1007" t="s">
         <v>154</v>
@@ -39152,7 +39160,7 @@
       </c>
       <c r="D1008" s="65"/>
       <c r="E1008" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="F1008" t="s">
         <v>141</v>
@@ -39170,13 +39178,13 @@
       </c>
       <c r="D1009" s="65"/>
       <c r="E1009" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="F1009" t="s">
         <v>103</v>
       </c>
       <c r="K1009" s="63" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="1010" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -39197,7 +39205,7 @@
         <v>327</v>
       </c>
       <c r="U1010" s="63" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="1011" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -39212,7 +39220,7 @@
       </c>
       <c r="D1011" s="65"/>
       <c r="E1011" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="F1011" t="s">
         <v>123</v>
@@ -39230,7 +39238,7 @@
       </c>
       <c r="D1012" s="65"/>
       <c r="E1012" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="F1012" t="s">
         <v>261</v>
@@ -39248,7 +39256,7 @@
       </c>
       <c r="D1013" s="65"/>
       <c r="E1013" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="F1013" t="s">
         <v>261</v>
@@ -39266,13 +39274,13 @@
       </c>
       <c r="D1014" s="65"/>
       <c r="E1014" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="F1014" t="s">
         <v>161</v>
       </c>
       <c r="U1014" s="63" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="1015" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -39293,7 +39301,7 @@
         <v>89</v>
       </c>
       <c r="U1015" s="63" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="1016" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -39308,13 +39316,13 @@
       </c>
       <c r="D1016" s="65"/>
       <c r="E1016" t="s">
+        <v>2073</v>
+      </c>
+      <c r="F1016" t="s">
         <v>2074</v>
       </c>
-      <c r="F1016" t="s">
+      <c r="U1016" s="63" t="s">
         <v>2075</v>
-      </c>
-      <c r="U1016" s="63" t="s">
-        <v>2076</v>
       </c>
     </row>
     <row r="1017" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -39329,7 +39337,7 @@
       </c>
       <c r="D1017" s="65"/>
       <c r="E1017" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="F1017" t="s">
         <v>237</v>
@@ -39365,10 +39373,10 @@
       </c>
       <c r="D1019" s="65"/>
       <c r="E1019" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="F1019" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="1020" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -39383,7 +39391,7 @@
       </c>
       <c r="D1020" s="65"/>
       <c r="E1020" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="F1020" t="s">
         <v>234</v>
@@ -39401,7 +39409,7 @@
       </c>
       <c r="D1021" s="65"/>
       <c r="E1021" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="F1021" t="s">
         <v>739</v>
@@ -39419,10 +39427,10 @@
       </c>
       <c r="D1022" s="65"/>
       <c r="E1022" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="F1022" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="1023" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -39437,13 +39445,13 @@
       </c>
       <c r="D1023" s="65"/>
       <c r="E1023" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="F1023" t="s">
         <v>87</v>
       </c>
       <c r="U1023" s="63" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="1024" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -39458,7 +39466,7 @@
       </c>
       <c r="D1024" s="65"/>
       <c r="E1024" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="F1024" t="s">
         <v>135</v>
@@ -39476,7 +39484,7 @@
       </c>
       <c r="D1025" s="65"/>
       <c r="E1025" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="F1025" t="s">
         <v>261</v>
@@ -39494,7 +39502,7 @@
       </c>
       <c r="D1026" s="65"/>
       <c r="E1026" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="F1026" t="s">
         <v>192</v>
@@ -39512,7 +39520,7 @@
       </c>
       <c r="D1027" s="65"/>
       <c r="E1027" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="F1027" t="s">
         <v>213</v>
@@ -39536,7 +39544,7 @@
         <v>167</v>
       </c>
       <c r="U1028" s="63" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="1029" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -39551,7 +39559,7 @@
       </c>
       <c r="D1029" s="65"/>
       <c r="E1029" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="F1029" t="s">
         <v>247</v>
@@ -39569,7 +39577,7 @@
       </c>
       <c r="D1030" s="65"/>
       <c r="E1030" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="F1030" t="s">
         <v>135</v>
@@ -39587,7 +39595,7 @@
       </c>
       <c r="D1031" s="65"/>
       <c r="E1031" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="F1031" t="s">
         <v>123</v>
@@ -39605,13 +39613,13 @@
       </c>
       <c r="D1032" s="65"/>
       <c r="E1032" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="F1032" t="s">
         <v>167</v>
       </c>
       <c r="K1032" s="63" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="1033" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -39644,7 +39652,7 @@
       </c>
       <c r="D1034" s="65"/>
       <c r="E1034" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="F1034" t="s">
         <v>41</v>
@@ -39662,7 +39670,7 @@
       </c>
       <c r="D1035" s="65"/>
       <c r="E1035" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="F1035" t="s">
         <v>237</v>
@@ -39680,7 +39688,7 @@
       </c>
       <c r="D1036" s="65"/>
       <c r="E1036" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="F1036" t="s">
         <v>143</v>
@@ -39698,7 +39706,7 @@
       </c>
       <c r="D1037" s="65"/>
       <c r="E1037" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="F1037" t="s">
         <v>62</v>
@@ -39716,7 +39724,7 @@
       </c>
       <c r="D1038" s="65"/>
       <c r="E1038" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="F1038" t="s">
         <v>81</v>
@@ -39734,7 +39742,7 @@
       </c>
       <c r="D1039" s="65"/>
       <c r="E1039" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="F1039" t="s">
         <v>213</v>
@@ -39770,7 +39778,7 @@
       </c>
       <c r="D1041" s="65"/>
       <c r="E1041" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="F1041" t="s">
         <v>154</v>
@@ -39788,10 +39796,10 @@
       </c>
       <c r="D1042" s="65"/>
       <c r="E1042" t="s">
+        <v>2100</v>
+      </c>
+      <c r="F1042" t="s">
         <v>2101</v>
-      </c>
-      <c r="F1042" t="s">
-        <v>2102</v>
       </c>
     </row>
     <row r="1043" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
@@ -39806,7 +39814,7 @@
       </c>
       <c r="D1043" s="65"/>
       <c r="E1043" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="F1043" t="s">
         <v>261</v>
@@ -39824,7 +39832,7 @@
       </c>
       <c r="D1044" s="65"/>
       <c r="E1044" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="F1044" t="s">
         <v>87</v>
@@ -39842,7 +39850,7 @@
       </c>
       <c r="D1045" s="65"/>
       <c r="E1045" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="F1045" t="s">
         <v>123</v>
@@ -39860,7 +39868,7 @@
       </c>
       <c r="D1046" s="65"/>
       <c r="E1046" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="F1046" t="s">
         <v>167</v>
@@ -39878,7 +39886,7 @@
       </c>
       <c r="D1047" s="65"/>
       <c r="E1047" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="F1047" t="s">
         <v>146</v>
@@ -39896,7 +39904,7 @@
       </c>
       <c r="D1048" s="65"/>
       <c r="E1048" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="F1048" t="s">
         <v>85</v>
@@ -39914,7 +39922,7 @@
       </c>
       <c r="D1049" s="65"/>
       <c r="E1049" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="F1049" t="s">
         <v>137</v>
@@ -39932,7 +39940,7 @@
       </c>
       <c r="D1050" s="65"/>
       <c r="E1050" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="F1050" t="s">
         <v>189</v>
@@ -39950,10 +39958,10 @@
       </c>
       <c r="D1051" s="65"/>
       <c r="E1051" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="F1051" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="1052" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
@@ -39968,7 +39976,7 @@
       </c>
       <c r="D1052" s="65"/>
       <c r="E1052" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="F1052" t="s">
         <v>167</v>
@@ -39986,7 +39994,7 @@
       </c>
       <c r="D1053" s="65"/>
       <c r="E1053" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="F1053" t="s">
         <v>167</v>
@@ -40004,7 +40012,7 @@
       </c>
       <c r="D1054" s="65"/>
       <c r="E1054" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="F1054" t="s">
         <v>87</v>
@@ -40022,7 +40030,7 @@
       </c>
       <c r="D1055" s="65"/>
       <c r="E1055" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="F1055" t="s">
         <v>327</v>
@@ -40040,7 +40048,7 @@
       </c>
       <c r="D1056" s="65"/>
       <c r="E1056" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="F1056" t="s">
         <v>141</v>
@@ -40058,7 +40066,7 @@
       </c>
       <c r="D1057" s="65"/>
       <c r="E1057" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="F1057" t="s">
         <v>81</v>
@@ -40076,7 +40084,7 @@
       </c>
       <c r="D1058" s="65"/>
       <c r="E1058" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="F1058" t="s">
         <v>87</v>
@@ -40094,7 +40102,7 @@
       </c>
       <c r="D1059" s="65"/>
       <c r="E1059" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="F1059" t="s">
         <v>24</v>
@@ -40112,7 +40120,7 @@
       </c>
       <c r="D1060" s="65"/>
       <c r="E1060" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="F1060" t="s">
         <v>237</v>
@@ -40130,7 +40138,7 @@
       </c>
       <c r="D1061" s="65"/>
       <c r="E1061" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="F1061" t="s">
         <v>146</v>
@@ -40148,7 +40156,7 @@
       </c>
       <c r="D1062" s="65"/>
       <c r="E1062" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="F1062" t="s">
         <v>81</v>
@@ -40166,7 +40174,7 @@
       </c>
       <c r="D1063" s="65"/>
       <c r="E1063" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="F1063" t="s">
         <v>828</v>
@@ -40184,10 +40192,10 @@
       </c>
       <c r="D1064" s="65"/>
       <c r="E1064" t="s">
+        <v>2121</v>
+      </c>
+      <c r="F1064" t="s">
         <v>2122</v>
-      </c>
-      <c r="F1064" t="s">
-        <v>2123</v>
       </c>
     </row>
     <row r="1065" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -40202,7 +40210,7 @@
       </c>
       <c r="D1065" s="65"/>
       <c r="E1065" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="F1065" t="s">
         <v>207</v>
@@ -40220,7 +40228,7 @@
       </c>
       <c r="D1066" s="65"/>
       <c r="E1066" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="F1066" t="s">
         <v>87</v>
@@ -40316,7 +40324,7 @@
         <v>167</v>
       </c>
       <c r="U1071" s="63" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="1072" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -40331,13 +40339,13 @@
       </c>
       <c r="D1072" s="65"/>
       <c r="E1072" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="F1072" t="s">
         <v>135</v>
       </c>
       <c r="K1072" s="63" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="1073" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -40352,16 +40360,16 @@
       </c>
       <c r="D1073" s="65"/>
       <c r="E1073" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="F1073" t="s">
         <v>234</v>
       </c>
       <c r="K1073" s="63" t="s">
+        <v>2128</v>
+      </c>
+      <c r="U1073" s="63" t="s">
         <v>2129</v>
-      </c>
-      <c r="U1073" s="63" t="s">
-        <v>2130</v>
       </c>
     </row>
     <row r="1074" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -40376,7 +40384,7 @@
       </c>
       <c r="D1074" s="65"/>
       <c r="E1074" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="F1074" t="s">
         <v>137</v>
@@ -40394,13 +40402,13 @@
       </c>
       <c r="D1075" s="65"/>
       <c r="E1075" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="F1075" t="s">
         <v>141</v>
       </c>
       <c r="K1075" s="63" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="1076" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -40415,7 +40423,7 @@
       </c>
       <c r="D1076" s="65"/>
       <c r="E1076" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="F1076" t="s">
         <v>146</v>
@@ -40433,7 +40441,7 @@
       </c>
       <c r="D1077" s="65"/>
       <c r="E1077" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="F1077" t="s">
         <v>356</v>
@@ -40451,13 +40459,13 @@
       </c>
       <c r="D1078" s="65"/>
       <c r="E1078" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="F1078" t="s">
+        <v>2134</v>
+      </c>
+      <c r="U1078" s="63" t="s">
         <v>2135</v>
-      </c>
-      <c r="U1078" s="63" t="s">
-        <v>2136</v>
       </c>
     </row>
     <row r="1079" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -40472,16 +40480,16 @@
       </c>
       <c r="D1079" s="65"/>
       <c r="E1079" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="F1079" t="s">
+        <v>2136</v>
+      </c>
+      <c r="K1079" s="63" t="s">
         <v>2137</v>
       </c>
-      <c r="K1079" s="63" t="s">
+      <c r="U1079" s="63" t="s">
         <v>2138</v>
-      </c>
-      <c r="U1079" s="63" t="s">
-        <v>2139</v>
       </c>
     </row>
     <row r="1080" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -40496,13 +40504,13 @@
       </c>
       <c r="D1080" s="65"/>
       <c r="E1080" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="F1080" t="s">
         <v>81</v>
       </c>
       <c r="U1080" s="63" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="1081" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -40517,10 +40525,10 @@
       </c>
       <c r="D1081" s="65"/>
       <c r="E1081" t="s">
+        <v>2141</v>
+      </c>
+      <c r="F1081" t="s">
         <v>2142</v>
-      </c>
-      <c r="F1081" t="s">
-        <v>2143</v>
       </c>
     </row>
     <row r="1082" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -40535,13 +40543,13 @@
       </c>
       <c r="D1082" s="65"/>
       <c r="E1082" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="F1082" t="s">
         <v>189</v>
       </c>
       <c r="U1082" s="63" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="1083" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -40556,10 +40564,10 @@
       </c>
       <c r="D1083" s="65"/>
       <c r="E1083" t="s">
+        <v>2145</v>
+      </c>
+      <c r="F1083" t="s">
         <v>2146</v>
-      </c>
-      <c r="F1083" t="s">
-        <v>2147</v>
       </c>
     </row>
     <row r="1084" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -40574,13 +40582,13 @@
       </c>
       <c r="D1084" s="65"/>
       <c r="E1084" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="F1084" t="s">
         <v>299</v>
       </c>
       <c r="U1084" s="63" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="1085" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -40595,7 +40603,7 @@
       </c>
       <c r="D1085" s="65"/>
       <c r="E1085" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="F1085" t="s">
         <v>167</v>
@@ -40613,7 +40621,7 @@
       </c>
       <c r="D1086" s="65"/>
       <c r="E1086" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="F1086" t="s">
         <v>135</v>
@@ -40631,10 +40639,10 @@
       </c>
       <c r="D1087" s="65"/>
       <c r="E1087" t="s">
+        <v>2151</v>
+      </c>
+      <c r="F1087" t="s">
         <v>2152</v>
-      </c>
-      <c r="F1087" t="s">
-        <v>2153</v>
       </c>
     </row>
     <row r="1088" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -40649,7 +40657,7 @@
       </c>
       <c r="D1088" s="65"/>
       <c r="E1088" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="F1088" t="s">
         <v>87</v>
@@ -40667,10 +40675,10 @@
       </c>
       <c r="D1089" s="65"/>
       <c r="E1089" t="s">
+        <v>2154</v>
+      </c>
+      <c r="F1089" t="s">
         <v>2155</v>
-      </c>
-      <c r="F1089" t="s">
-        <v>2156</v>
       </c>
     </row>
     <row r="1090" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -40685,13 +40693,13 @@
       </c>
       <c r="D1090" s="65"/>
       <c r="E1090" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="F1090" t="s">
         <v>167</v>
       </c>
       <c r="U1090" s="63" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="1091" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -40706,13 +40714,13 @@
       </c>
       <c r="D1091" s="65"/>
       <c r="E1091" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="F1091" t="s">
         <v>285</v>
       </c>
       <c r="U1091" s="63" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="1092" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -40727,13 +40735,13 @@
       </c>
       <c r="D1092" s="65"/>
       <c r="E1092" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="F1092" t="s">
         <v>207</v>
       </c>
       <c r="U1092" s="63" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="1093" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -40748,13 +40756,13 @@
       </c>
       <c r="D1093" s="65"/>
       <c r="E1093" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="F1093" t="s">
         <v>123</v>
       </c>
       <c r="K1093" s="63" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="1094" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -40769,7 +40777,7 @@
       </c>
       <c r="D1094" s="65"/>
       <c r="E1094" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="F1094" t="s">
         <v>334</v>
@@ -40787,7 +40795,7 @@
       </c>
       <c r="D1095" s="65"/>
       <c r="E1095" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="F1095" t="s">
         <v>167</v>
@@ -40805,7 +40813,7 @@
       </c>
       <c r="D1096" s="65"/>
       <c r="E1096" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="F1096" t="s">
         <v>85</v>
@@ -40823,7 +40831,7 @@
       </c>
       <c r="D1097" s="65"/>
       <c r="E1097" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="F1097" t="s">
         <v>154</v>
@@ -40841,10 +40849,10 @@
       </c>
       <c r="D1098" s="65"/>
       <c r="E1098" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="F1098" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="1099" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -40859,13 +40867,13 @@
       </c>
       <c r="D1099" s="65"/>
       <c r="E1099" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="F1099" t="s">
         <v>261</v>
       </c>
       <c r="U1099" s="63" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="1100" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -40898,7 +40906,7 @@
       </c>
       <c r="D1101" s="65"/>
       <c r="E1101" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="F1101" t="s">
         <v>237</v>
@@ -40916,7 +40924,7 @@
       </c>
       <c r="D1102" s="65"/>
       <c r="E1102" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="F1102" t="s">
         <v>167</v>
@@ -40934,7 +40942,7 @@
       </c>
       <c r="D1103" s="65"/>
       <c r="E1103" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="F1103" t="s">
         <v>356</v>
@@ -40952,7 +40960,7 @@
       </c>
       <c r="D1104" s="65"/>
       <c r="E1104" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="F1104" t="s">
         <v>137</v>
@@ -40970,13 +40978,13 @@
       </c>
       <c r="D1105" s="65"/>
       <c r="E1105" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="F1105" t="s">
         <v>87</v>
       </c>
       <c r="U1105" s="63" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="1106" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -40991,7 +40999,7 @@
       </c>
       <c r="D1106" s="65"/>
       <c r="E1106" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="F1106" t="s">
         <v>334</v>
@@ -41009,13 +41017,13 @@
       </c>
       <c r="D1107" s="65"/>
       <c r="E1107" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="F1107" t="s">
         <v>146</v>
       </c>
       <c r="U1107" s="63" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="1108" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -41030,10 +41038,10 @@
       </c>
       <c r="D1108" s="65"/>
       <c r="E1108" t="s">
+        <v>2178</v>
+      </c>
+      <c r="F1108" t="s">
         <v>2179</v>
-      </c>
-      <c r="F1108" t="s">
-        <v>2180</v>
       </c>
     </row>
     <row r="1109" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -41048,13 +41056,13 @@
       </c>
       <c r="D1109" s="65"/>
       <c r="E1109" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="F1109" t="s">
         <v>700</v>
       </c>
       <c r="U1109" s="63" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="1110" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -41087,16 +41095,16 @@
       </c>
       <c r="D1111" s="65"/>
       <c r="E1111" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="F1111" t="s">
         <v>146</v>
       </c>
       <c r="K1111" s="63" t="s">
+        <v>2183</v>
+      </c>
+      <c r="U1111" s="63" t="s">
         <v>2184</v>
-      </c>
-      <c r="U1111" s="63" t="s">
-        <v>2185</v>
       </c>
     </row>
     <row r="1112" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -41114,7 +41122,7 @@
         <v>752</v>
       </c>
       <c r="F1112" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="1113" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -41129,13 +41137,13 @@
       </c>
       <c r="D1113" s="65"/>
       <c r="E1113" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="F1113" t="s">
         <v>24</v>
       </c>
       <c r="U1113" s="63" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="1114" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -41150,13 +41158,13 @@
       </c>
       <c r="D1114" s="65"/>
       <c r="E1114" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="F1114" t="s">
         <v>135</v>
       </c>
       <c r="U1114" s="63" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="1115" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -41171,7 +41179,7 @@
       </c>
       <c r="D1115" s="65"/>
       <c r="E1115" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="F1115" t="s">
         <v>247</v>
@@ -41189,7 +41197,7 @@
       </c>
       <c r="D1116" s="65"/>
       <c r="E1116" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="F1116" t="s">
         <v>141</v>
@@ -41207,7 +41215,7 @@
       </c>
       <c r="D1117" s="65"/>
       <c r="E1117" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="F1117" t="s">
         <v>81</v>
@@ -41225,7 +41233,7 @@
       </c>
       <c r="D1118" s="65"/>
       <c r="E1118" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="F1118" t="s">
         <v>135</v>
@@ -41249,7 +41257,7 @@
         <v>123</v>
       </c>
       <c r="U1119" s="63" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="1120" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -41264,7 +41272,7 @@
       </c>
       <c r="D1120" s="65"/>
       <c r="E1120" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="F1120" t="s">
         <v>87</v>
@@ -41282,7 +41290,7 @@
       </c>
       <c r="D1121" s="65"/>
       <c r="E1121" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="F1121" t="s">
         <v>154</v>
@@ -41300,7 +41308,7 @@
       </c>
       <c r="D1122" s="65"/>
       <c r="E1122" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="F1122" t="s">
         <v>89</v>
@@ -41336,7 +41344,7 @@
       </c>
       <c r="D1124" s="65"/>
       <c r="E1124" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="F1124" t="s">
         <v>209</v>
@@ -41372,7 +41380,7 @@
       </c>
       <c r="D1126" s="65"/>
       <c r="E1126" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="F1126" t="s">
         <v>167</v>
@@ -41390,7 +41398,7 @@
       </c>
       <c r="D1127" s="65"/>
       <c r="E1127" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="F1127" t="s">
         <v>234</v>
@@ -41408,7 +41416,7 @@
       </c>
       <c r="D1128" s="65"/>
       <c r="E1128" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="F1128" t="s">
         <v>24</v>
@@ -41426,7 +41434,7 @@
       </c>
       <c r="D1129" s="65"/>
       <c r="E1129" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="F1129" t="s">
         <v>141</v>
@@ -41444,7 +41452,7 @@
       </c>
       <c r="D1130" s="65"/>
       <c r="E1130" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="F1130" t="s">
         <v>232</v>
@@ -41462,7 +41470,7 @@
       </c>
       <c r="D1131" s="65"/>
       <c r="E1131" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="F1131" t="s">
         <v>81</v>
@@ -41480,7 +41488,7 @@
       </c>
       <c r="D1132" s="65"/>
       <c r="E1132" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="F1132" t="s">
         <v>135</v>
@@ -41498,7 +41506,7 @@
       </c>
       <c r="D1133" s="65"/>
       <c r="E1133" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="F1133" t="s">
         <v>81</v>
@@ -41516,7 +41524,7 @@
       </c>
       <c r="D1134" s="65"/>
       <c r="E1134" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="F1134" t="s">
         <v>343</v>
@@ -41534,7 +41542,7 @@
       </c>
       <c r="D1135" s="65"/>
       <c r="E1135" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="F1135" t="s">
         <v>24</v>
@@ -41552,13 +41560,13 @@
       </c>
       <c r="D1136" s="65"/>
       <c r="E1136" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="F1136" t="s">
         <v>87</v>
       </c>
       <c r="U1136" s="63" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="1137" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -41573,13 +41581,13 @@
       </c>
       <c r="D1137" s="65"/>
       <c r="E1137" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="F1137" t="s">
         <v>123</v>
       </c>
       <c r="U1137" s="63" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="1138" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -41600,7 +41608,7 @@
         <v>306</v>
       </c>
       <c r="U1138" s="63" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="1139" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -41615,7 +41623,7 @@
       </c>
       <c r="D1139" s="65"/>
       <c r="E1139" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="F1139" t="s">
         <v>123</v>
@@ -41633,7 +41641,7 @@
       </c>
       <c r="D1140" s="65"/>
       <c r="E1140" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="F1140" t="s">
         <v>205</v>
@@ -41651,7 +41659,7 @@
       </c>
       <c r="D1141" s="65"/>
       <c r="E1141" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="F1141" t="s">
         <v>356</v>
@@ -41672,10 +41680,10 @@
         <v>917</v>
       </c>
       <c r="F1142" t="s">
+        <v>2212</v>
+      </c>
+      <c r="U1142" s="63" t="s">
         <v>2213</v>
-      </c>
-      <c r="U1142" s="63" t="s">
-        <v>2214</v>
       </c>
     </row>
     <row r="1143" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -41690,7 +41698,7 @@
       </c>
       <c r="D1143" s="65"/>
       <c r="E1143" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="F1143" t="s">
         <v>334</v>
@@ -41708,7 +41716,7 @@
       </c>
       <c r="D1144" s="65"/>
       <c r="E1144" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="F1144" t="s">
         <v>241</v>
@@ -41726,10 +41734,10 @@
       </c>
       <c r="D1145" s="65"/>
       <c r="E1145" t="s">
+        <v>2216</v>
+      </c>
+      <c r="F1145" t="s">
         <v>2217</v>
-      </c>
-      <c r="F1145" t="s">
-        <v>2218</v>
       </c>
     </row>
     <row r="1146" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -41744,13 +41752,13 @@
       </c>
       <c r="D1146" s="65"/>
       <c r="E1146" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="F1146" t="s">
         <v>141</v>
       </c>
       <c r="U1146" s="63" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="1147" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -41765,13 +41773,13 @@
       </c>
       <c r="D1147" s="65"/>
       <c r="E1147" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="F1147" t="s">
         <v>24</v>
       </c>
       <c r="U1147" s="63" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="1148" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -41786,7 +41794,7 @@
       </c>
       <c r="D1148" s="65"/>
       <c r="E1148" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="F1148" t="s">
         <v>141</v>
@@ -41804,13 +41812,13 @@
       </c>
       <c r="D1149" s="65"/>
       <c r="E1149" t="s">
+        <v>2222</v>
+      </c>
+      <c r="F1149" t="s">
         <v>2223</v>
       </c>
-      <c r="F1149" t="s">
+      <c r="U1149" s="63" t="s">
         <v>2224</v>
-      </c>
-      <c r="U1149" s="63" t="s">
-        <v>2225</v>
       </c>
     </row>
     <row r="1150" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -41825,7 +41833,7 @@
       </c>
       <c r="D1150" s="65"/>
       <c r="E1150" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="F1150" t="s">
         <v>64</v>
@@ -41843,7 +41851,7 @@
       </c>
       <c r="D1151" s="65"/>
       <c r="E1151" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="F1151" t="s">
         <v>141</v>
@@ -41861,7 +41869,7 @@
       </c>
       <c r="D1152" s="65"/>
       <c r="E1152" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="F1152" t="s">
         <v>263</v>
@@ -41879,7 +41887,7 @@
       </c>
       <c r="D1153" s="65"/>
       <c r="E1153" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="F1153" t="s">
         <v>141</v>
@@ -41897,13 +41905,13 @@
       </c>
       <c r="D1154" s="65"/>
       <c r="E1154" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="F1154" t="s">
         <v>24</v>
       </c>
       <c r="U1154" s="63" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="1155" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -41918,10 +41926,10 @@
       </c>
       <c r="D1155" s="65"/>
       <c r="E1155" t="s">
+        <v>2231</v>
+      </c>
+      <c r="F1155" t="s">
         <v>2232</v>
-      </c>
-      <c r="F1155" t="s">
-        <v>2233</v>
       </c>
     </row>
     <row r="1156" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -41936,7 +41944,7 @@
       </c>
       <c r="D1156" s="65"/>
       <c r="E1156" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="F1156" t="s">
         <v>141</v>
@@ -41954,7 +41962,7 @@
       </c>
       <c r="D1157" s="65"/>
       <c r="E1157" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="F1157" t="s">
         <v>234</v>
@@ -41972,13 +41980,13 @@
       </c>
       <c r="D1158" s="65"/>
       <c r="E1158" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="F1158" t="s">
         <v>64</v>
       </c>
       <c r="U1158" s="63" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="1159" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -41993,13 +42001,13 @@
       </c>
       <c r="D1159" s="65"/>
       <c r="E1159" t="s">
+        <v>2236</v>
+      </c>
+      <c r="F1159" t="s">
         <v>2237</v>
       </c>
-      <c r="F1159" t="s">
+      <c r="U1159" s="63" t="s">
         <v>2238</v>
-      </c>
-      <c r="U1159" s="63" t="s">
-        <v>2239</v>
       </c>
     </row>
     <row r="1160" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -42014,7 +42022,7 @@
       </c>
       <c r="D1160" s="65"/>
       <c r="E1160" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="F1160" t="s">
         <v>356</v>
@@ -42032,7 +42040,7 @@
       </c>
       <c r="D1161" s="65"/>
       <c r="E1161" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="F1161" t="s">
         <v>249</v>
@@ -42050,10 +42058,10 @@
       </c>
       <c r="D1162" s="65"/>
       <c r="E1162" t="s">
+        <v>2240</v>
+      </c>
+      <c r="F1162" t="s">
         <v>2241</v>
-      </c>
-      <c r="F1162" t="s">
-        <v>2242</v>
       </c>
     </row>
     <row r="1163" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -42068,10 +42076,10 @@
       </c>
       <c r="D1163" s="65"/>
       <c r="E1163" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="F1163" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="1164" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -42086,10 +42094,10 @@
       </c>
       <c r="D1164" s="65"/>
       <c r="E1164" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="F1164" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="1165" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -42104,10 +42112,10 @@
       </c>
       <c r="D1165" s="65"/>
       <c r="E1165" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="F1165" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="1166" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -42122,10 +42130,10 @@
       </c>
       <c r="D1166" s="65"/>
       <c r="E1166" t="s">
+        <v>2244</v>
+      </c>
+      <c r="F1166" t="s">
         <v>2245</v>
-      </c>
-      <c r="F1166" t="s">
-        <v>2246</v>
       </c>
     </row>
     <row r="1167" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -42140,10 +42148,10 @@
       </c>
       <c r="D1167" s="65"/>
       <c r="E1167" t="s">
+        <v>2246</v>
+      </c>
+      <c r="F1167" t="s">
         <v>2247</v>
-      </c>
-      <c r="F1167" t="s">
-        <v>2248</v>
       </c>
     </row>
     <row r="1168" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -42158,10 +42166,10 @@
       </c>
       <c r="D1168" s="65"/>
       <c r="E1168" t="s">
+        <v>2248</v>
+      </c>
+      <c r="F1168" t="s">
         <v>2249</v>
-      </c>
-      <c r="F1168" t="s">
-        <v>2250</v>
       </c>
     </row>
     <row r="1169" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -42176,13 +42184,13 @@
       </c>
       <c r="D1169" s="65"/>
       <c r="E1169" t="s">
+        <v>2250</v>
+      </c>
+      <c r="F1169" t="s">
         <v>2251</v>
       </c>
-      <c r="F1169" t="s">
+      <c r="U1169" s="63" t="s">
         <v>2252</v>
-      </c>
-      <c r="U1169" s="63" t="s">
-        <v>2253</v>
       </c>
     </row>
     <row r="1170" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -42197,13 +42205,13 @@
       </c>
       <c r="D1170" s="65"/>
       <c r="E1170" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="F1170" t="s">
         <v>356</v>
       </c>
       <c r="U1170" s="63" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="1171" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -42218,13 +42226,13 @@
       </c>
       <c r="D1171" s="65"/>
       <c r="E1171" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="F1171" t="s">
         <v>261</v>
       </c>
       <c r="U1171" s="63" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="1172" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -42242,10 +42250,10 @@
         <v>77</v>
       </c>
       <c r="F1172" t="s">
+        <v>2257</v>
+      </c>
+      <c r="U1172" s="63" t="s">
         <v>2258</v>
-      </c>
-      <c r="U1172" s="63" t="s">
-        <v>2259</v>
       </c>
     </row>
     <row r="1173" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -42278,13 +42286,13 @@
       </c>
       <c r="D1174" s="65"/>
       <c r="E1174" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="F1174" t="s">
         <v>64</v>
       </c>
       <c r="U1174" s="63" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="1175" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -42299,10 +42307,10 @@
       </c>
       <c r="D1175" s="65"/>
       <c r="E1175" t="s">
+        <v>2261</v>
+      </c>
+      <c r="F1175" t="s">
         <v>2262</v>
-      </c>
-      <c r="F1175" t="s">
-        <v>2263</v>
       </c>
     </row>
     <row r="1176" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -42317,13 +42325,13 @@
       </c>
       <c r="D1176" s="65"/>
       <c r="E1176" t="s">
+        <v>2263</v>
+      </c>
+      <c r="F1176" t="s">
         <v>2264</v>
       </c>
-      <c r="F1176" t="s">
+      <c r="U1176" s="63" t="s">
         <v>2265</v>
-      </c>
-      <c r="U1176" s="63" t="s">
-        <v>2266</v>
       </c>
     </row>
     <row r="1177" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -42338,10 +42346,10 @@
       </c>
       <c r="D1177" s="65"/>
       <c r="E1177" t="s">
+        <v>2266</v>
+      </c>
+      <c r="F1177" t="s">
         <v>2267</v>
-      </c>
-      <c r="F1177" t="s">
-        <v>2268</v>
       </c>
     </row>
     <row r="1178" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -42356,7 +42364,7 @@
       </c>
       <c r="D1178" s="65"/>
       <c r="E1178" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
       <c r="F1178" t="s">
         <v>325</v>
@@ -42370,7 +42378,7 @@
         <v>2010</v>
       </c>
       <c r="C1179" s="65" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="D1179" s="65"/>
       <c r="E1179" t="s">
@@ -42388,14 +42396,14 @@
         <v>2010</v>
       </c>
       <c r="C1180" s="65" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="D1180" s="65"/>
       <c r="E1180" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="F1180" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="1181" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -42406,14 +42414,14 @@
         <v>2010</v>
       </c>
       <c r="C1181" s="65" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="D1181" s="65"/>
       <c r="E1181" t="s">
+        <v>2271</v>
+      </c>
+      <c r="F1181" t="s">
         <v>2272</v>
-      </c>
-      <c r="F1181" t="s">
-        <v>2273</v>
       </c>
     </row>
     <row r="1182" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -42424,17 +42432,17 @@
         <v>2010</v>
       </c>
       <c r="C1182" s="65" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="D1182" s="65"/>
       <c r="E1182" t="s">
         <v>1152</v>
       </c>
       <c r="F1182" t="s">
+        <v>2273</v>
+      </c>
+      <c r="U1182" s="63" t="s">
         <v>2274</v>
-      </c>
-      <c r="U1182" s="63" t="s">
-        <v>2275</v>
       </c>
     </row>
     <row r="1183" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -42445,17 +42453,17 @@
         <v>2010</v>
       </c>
       <c r="C1183" s="65" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="D1183" s="65"/>
       <c r="E1183" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="F1183" t="s">
         <v>182</v>
       </c>
       <c r="U1183" s="63" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="1184" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -42466,17 +42474,17 @@
         <v>2010</v>
       </c>
       <c r="C1184" s="65" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="D1184" s="65"/>
       <c r="E1184" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="F1184" t="s">
         <v>135</v>
       </c>
       <c r="U1184" s="63" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="1185" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -42487,14 +42495,14 @@
         <v>2010</v>
       </c>
       <c r="C1185" s="65" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="D1185" s="65"/>
       <c r="E1185" t="s">
+        <v>2278</v>
+      </c>
+      <c r="F1185" t="s">
         <v>2279</v>
-      </c>
-      <c r="F1185" t="s">
-        <v>2280</v>
       </c>
     </row>
     <row r="1186" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -42505,20 +42513,20 @@
         <v>2010</v>
       </c>
       <c r="C1186" s="65" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="D1186" s="65"/>
       <c r="E1186" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="F1186" t="s">
+        <v>2280</v>
+      </c>
+      <c r="K1186" s="63" t="s">
         <v>2281</v>
       </c>
-      <c r="K1186" s="63" t="s">
+      <c r="U1186" s="63" t="s">
         <v>2282</v>
-      </c>
-      <c r="U1186" s="63" t="s">
-        <v>2283</v>
       </c>
     </row>
     <row r="1187" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -42529,14 +42537,14 @@
         <v>2010</v>
       </c>
       <c r="C1187" s="65" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="D1187" s="65"/>
       <c r="E1187" t="s">
+        <v>2283</v>
+      </c>
+      <c r="F1187" t="s">
         <v>2284</v>
-      </c>
-      <c r="F1187" t="s">
-        <v>2285</v>
       </c>
     </row>
     <row r="1188" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -42547,17 +42555,17 @@
         <v>2010</v>
       </c>
       <c r="C1188" s="65" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="D1188" s="65"/>
       <c r="E1188" t="s">
+        <v>2285</v>
+      </c>
+      <c r="F1188" t="s">
         <v>2286</v>
       </c>
-      <c r="F1188" t="s">
+      <c r="U1188" s="63" t="s">
         <v>2287</v>
-      </c>
-      <c r="U1188" s="63" t="s">
-        <v>2288</v>
       </c>
     </row>
     <row r="1189" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -42568,11 +42576,11 @@
         <v>2010</v>
       </c>
       <c r="C1189" s="65" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="D1189" s="65"/>
       <c r="E1189" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="F1189" t="s">
         <v>141</v>
@@ -42586,11 +42594,11 @@
         <v>2010</v>
       </c>
       <c r="C1190" s="65" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="D1190" s="65"/>
       <c r="E1190" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="F1190" t="s">
         <v>62</v>
@@ -42604,17 +42612,17 @@
         <v>2010</v>
       </c>
       <c r="C1191" s="65" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="D1191" s="65"/>
       <c r="E1191" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="F1191" t="s">
         <v>700</v>
       </c>
       <c r="U1191" s="63" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="1192" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -42625,17 +42633,17 @@
         <v>2010</v>
       </c>
       <c r="C1192" s="65" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="D1192" s="65"/>
       <c r="E1192" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="F1192" t="s">
         <v>857</v>
       </c>
       <c r="U1192" s="63" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="1193" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -42646,17 +42654,17 @@
         <v>2010</v>
       </c>
       <c r="C1193" s="65" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="D1193" s="65"/>
       <c r="E1193" t="s">
+        <v>2294</v>
+      </c>
+      <c r="F1193" t="s">
         <v>2295</v>
       </c>
-      <c r="F1193" t="s">
+      <c r="U1193" s="63" t="s">
         <v>2296</v>
-      </c>
-      <c r="U1193" s="63" t="s">
-        <v>2297</v>
       </c>
     </row>
     <row r="1194" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -42667,17 +42675,17 @@
         <v>2010</v>
       </c>
       <c r="C1194" s="65" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="D1194" s="65"/>
       <c r="E1194" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="F1194" t="s">
         <v>197</v>
       </c>
       <c r="U1194" s="63" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="1195" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -42688,14 +42696,14 @@
         <v>2010</v>
       </c>
       <c r="C1195" s="65" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="D1195" s="65"/>
       <c r="E1195" t="s">
         <v>915</v>
       </c>
       <c r="F1195" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="1196" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -42706,17 +42714,17 @@
         <v>2010</v>
       </c>
       <c r="C1196" s="65" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="D1196" s="65"/>
       <c r="E1196" t="s">
         <v>1118</v>
       </c>
       <c r="F1196" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="U1196" s="63" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="1197" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -42731,10 +42739,10 @@
       </c>
       <c r="D1197" s="65"/>
       <c r="E1197" t="s">
+        <v>2301</v>
+      </c>
+      <c r="F1197" t="s">
         <v>2302</v>
-      </c>
-      <c r="F1197" t="s">
-        <v>2303</v>
       </c>
     </row>
     <row r="1198" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -42749,10 +42757,10 @@
       </c>
       <c r="D1198" s="65"/>
       <c r="E1198" t="s">
+        <v>2303</v>
+      </c>
+      <c r="F1198" t="s">
         <v>2304</v>
-      </c>
-      <c r="F1198" t="s">
-        <v>2305</v>
       </c>
     </row>
     <row r="1199" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
@@ -42767,7 +42775,7 @@
       </c>
       <c r="D1199" s="65"/>
       <c r="E1199" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="F1199" t="s">
         <v>152</v>
@@ -42785,7 +42793,7 @@
       </c>
       <c r="D1200" s="65"/>
       <c r="E1200" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="F1200" t="s">
         <v>167</v>
@@ -42803,7 +42811,7 @@
       </c>
       <c r="D1201" s="65"/>
       <c r="E1201" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="F1201" t="s">
         <v>62</v>
@@ -42839,7 +42847,7 @@
       </c>
       <c r="D1203" s="65"/>
       <c r="E1203" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F1203" t="s">
         <v>285</v>
@@ -42857,10 +42865,10 @@
       </c>
       <c r="D1204" s="65"/>
       <c r="E1204" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="F1204" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="1205" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
@@ -42875,7 +42883,7 @@
       </c>
       <c r="D1205" s="65"/>
       <c r="E1205" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="F1205" t="s">
         <v>299</v>
@@ -42893,10 +42901,10 @@
       </c>
       <c r="D1206" s="65"/>
       <c r="E1206" t="s">
+        <v>2309</v>
+      </c>
+      <c r="F1206" t="s">
         <v>2310</v>
-      </c>
-      <c r="F1206" t="s">
-        <v>2311</v>
       </c>
     </row>
     <row r="1207" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
@@ -42911,7 +42919,7 @@
       </c>
       <c r="D1207" s="65"/>
       <c r="E1207" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="F1207" t="s">
         <v>836</v>
@@ -42929,10 +42937,10 @@
       </c>
       <c r="D1208" s="65"/>
       <c r="E1208" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="F1208" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="1209" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
@@ -42947,7 +42955,7 @@
       </c>
       <c r="D1209" s="65"/>
       <c r="E1209" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="F1209" t="s">
         <v>87</v>
@@ -42965,7 +42973,7 @@
       </c>
       <c r="D1210" s="65"/>
       <c r="E1210" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="F1210" t="s">
         <v>148</v>
@@ -42983,10 +42991,10 @@
       </c>
       <c r="D1211" s="65"/>
       <c r="E1211" t="s">
+        <v>2314</v>
+      </c>
+      <c r="F1211" t="s">
         <v>2315</v>
-      </c>
-      <c r="F1211" t="s">
-        <v>2316</v>
       </c>
     </row>
     <row r="1212" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
@@ -43019,10 +43027,10 @@
       </c>
       <c r="D1213" s="65"/>
       <c r="E1213" t="s">
+        <v>1930</v>
+      </c>
+      <c r="F1213" t="s">
         <v>1931</v>
-      </c>
-      <c r="F1213" t="s">
-        <v>1932</v>
       </c>
     </row>
     <row r="1214" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
@@ -43037,10 +43045,10 @@
       </c>
       <c r="D1214" s="65"/>
       <c r="E1214" t="s">
+        <v>2316</v>
+      </c>
+      <c r="F1214" t="s">
         <v>2317</v>
-      </c>
-      <c r="F1214" t="s">
-        <v>2318</v>
       </c>
     </row>
     <row r="1215" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
@@ -43055,7 +43063,7 @@
       </c>
       <c r="D1215" s="65"/>
       <c r="E1215" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="F1215" t="s">
         <v>123</v>
@@ -43091,10 +43099,10 @@
       </c>
       <c r="D1217" s="65"/>
       <c r="E1217" t="s">
+        <v>2319</v>
+      </c>
+      <c r="F1217" t="s">
         <v>2320</v>
-      </c>
-      <c r="F1217" t="s">
-        <v>2321</v>
       </c>
     </row>
     <row r="1218" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
@@ -43109,7 +43117,7 @@
       </c>
       <c r="D1218" s="65"/>
       <c r="E1218" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="F1218" t="s">
         <v>356</v>
